--- a/report/reliability/by-comb/UFAL A.C. Simões-Formação continuada - Concluída.xlsx
+++ b/report/reliability/by-comb/UFAL A.C. Simões-Formação continuada - Concluída.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="47">
   <si>
     <t>Reliability Analysis of all</t>
   </si>
@@ -71,22 +71,28 @@
     <t>med.r</t>
   </si>
   <si>
+    <t>Item3</t>
+  </si>
+  <si>
     <t>Item4</t>
   </si>
   <si>
     <t>Item5</t>
   </si>
   <si>
-    <t>Item3</t>
-  </si>
-  <si>
     <t>Item6</t>
   </si>
   <si>
-    <t>Item15</t>
+    <t>Item12</t>
   </si>
   <si>
     <t>Item13</t>
+  </si>
+  <si>
+    <t>Item14</t>
+  </si>
+  <si>
+    <t>Item15</t>
   </si>
   <si>
     <t>Item17</t>
@@ -95,31 +101,13 @@
     <t>Item18</t>
   </si>
   <si>
-    <t>Item14</t>
-  </si>
-  <si>
-    <t>Item12</t>
-  </si>
-  <si>
     <t>Item19</t>
   </si>
   <si>
-    <t>Item2</t>
-  </si>
-  <si>
-    <t>Item11</t>
-  </si>
-  <si>
-    <t>Item16</t>
-  </si>
-  <si>
-    <t>Item9</t>
+    <t>Item21</t>
   </si>
   <si>
     <t>Item23</t>
-  </si>
-  <si>
-    <t>Item21</t>
   </si>
   <si>
     <t>Item statistics</t>
@@ -2475,31 +2463,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="31">
-        <v>0.877905487393825</v>
+        <v>0.8704189728024757</v>
       </c>
       <c r="B6" t="n" s="32">
-        <v>0.8754072592020714</v>
+        <v>0.8710484623337073</v>
       </c>
       <c r="C6" t="n" s="33">
-        <v>0.9416896706771474</v>
+        <v>0.9198175726765174</v>
       </c>
       <c r="D6" t="n" s="34">
-        <v>0.29243760857201145</v>
+        <v>0.3419337964092134</v>
       </c>
       <c r="E6" t="n" s="35">
-        <v>7.026149786863224</v>
+        <v>6.754851303811904</v>
       </c>
       <c r="F6" t="n" s="36">
-        <v>0.027889351527005828</v>
+        <v>0.030395717417772635</v>
       </c>
       <c r="G6" t="n" s="37">
-        <v>2.9682034976152623</v>
+        <v>2.8378378378378377</v>
       </c>
       <c r="H6" t="n" s="38">
-        <v>0.6207662592897168</v>
+        <v>0.7054273919547731</v>
       </c>
       <c r="I6" t="n" s="39">
-        <v>0.29019606942821446</v>
+        <v>0.32956386563908546</v>
       </c>
     </row>
     <row r="7">
@@ -2549,28 +2537,28 @@
         <v>18</v>
       </c>
       <c r="B11" t="n" s="58">
-        <v>0.8715900739605649</v>
+        <v>0.8720197516306151</v>
       </c>
       <c r="C11" t="n" s="59">
-        <v>0.8685148527043179</v>
+        <v>0.871416084203317</v>
       </c>
       <c r="D11" t="n" s="60">
-        <v>0.9343674561295551</v>
+        <v>0.9147794756557323</v>
       </c>
       <c r="E11" t="n" s="61">
-        <v>0.29220519874367523</v>
+        <v>0.36092103893166755</v>
       </c>
       <c r="F11" t="n" s="62">
-        <v>6.605421757266723</v>
+        <v>6.777022451091016</v>
       </c>
       <c r="G11" t="n" s="63">
-        <v>0.02928449617580437</v>
+        <v>0.02999124331872373</v>
       </c>
       <c r="H11" t="n" s="64">
-        <v>0.028701873999903267</v>
+        <v>0.02149052408943191</v>
       </c>
       <c r="I11" t="n" s="65">
-        <v>0.29540821366926795</v>
+        <v>0.35410418346183636</v>
       </c>
     </row>
     <row r="12">
@@ -2578,28 +2566,28 @@
         <v>19</v>
       </c>
       <c r="B12" t="n" s="58">
-        <v>0.8622140660968111</v>
+        <v>0.8639570968729954</v>
       </c>
       <c r="C12" t="n" s="59">
-        <v>0.8611017122662313</v>
+        <v>0.8644921446538046</v>
       </c>
       <c r="D12" t="n" s="60">
-        <v>0.9305655532595628</v>
+        <v>0.9109612394361629</v>
       </c>
       <c r="E12" t="n" s="61">
-        <v>0.2792634619319488</v>
+        <v>0.34710385537978633</v>
       </c>
       <c r="F12" t="n" s="62">
-        <v>6.199512796851289</v>
+        <v>6.379645980265878</v>
       </c>
       <c r="G12" t="n" s="63">
-        <v>0.03173818440721983</v>
+        <v>0.03189043022171309</v>
       </c>
       <c r="H12" t="n" s="64">
-        <v>0.027877224354177194</v>
+        <v>0.02277471974370935</v>
       </c>
       <c r="I12" t="n" s="65">
-        <v>0.2767385464039911</v>
+        <v>0.34607941231005296</v>
       </c>
     </row>
     <row r="13">
@@ -2607,28 +2595,28 @@
         <v>20</v>
       </c>
       <c r="B13" t="n" s="58">
-        <v>0.8745570575162599</v>
+        <v>0.8506278163889126</v>
       </c>
       <c r="C13" t="n" s="59">
-        <v>0.8705265784716923</v>
+        <v>0.8532796218025036</v>
       </c>
       <c r="D13" t="n" s="60">
-        <v>0.9315088390566189</v>
+        <v>0.9039289157243482</v>
       </c>
       <c r="E13" t="n" s="61">
-        <v>0.2958859953899685</v>
+        <v>0.32643625809947246</v>
       </c>
       <c r="F13" t="n" s="62">
-        <v>6.723592905756059</v>
+        <v>5.815685811918555</v>
       </c>
       <c r="G13" t="n" s="63">
-        <v>0.028424624516085035</v>
+        <v>0.03527540108496581</v>
       </c>
       <c r="H13" t="n" s="64">
-        <v>0.02738378885701577</v>
+        <v>0.023359494210031116</v>
       </c>
       <c r="I13" t="n" s="65">
-        <v>0.29267292836119685</v>
+        <v>0.30962411635581344</v>
       </c>
     </row>
     <row r="14">
@@ -2636,28 +2624,28 @@
         <v>21</v>
       </c>
       <c r="B14" t="n" s="58">
-        <v>0.8659161486631072</v>
+        <v>0.8554948179613059</v>
       </c>
       <c r="C14" t="n" s="59">
-        <v>0.8644208379312632</v>
+        <v>0.8577960649514214</v>
       </c>
       <c r="D14" t="n" s="60">
-        <v>0.9324711757276369</v>
+        <v>0.9061909986142977</v>
       </c>
       <c r="E14" t="n" s="61">
-        <v>0.284940639925279</v>
+        <v>0.3345221063034448</v>
       </c>
       <c r="F14" t="n" s="62">
-        <v>6.37576471739082</v>
+        <v>6.032154206269943</v>
       </c>
       <c r="G14" t="n" s="63">
-        <v>0.030760055700281275</v>
+        <v>0.03407977253924645</v>
       </c>
       <c r="H14" t="n" s="64">
-        <v>0.028250666459945176</v>
+        <v>0.023077514544583216</v>
       </c>
       <c r="I14" t="n" s="65">
-        <v>0.2814363687991639</v>
+        <v>0.3270646512196095</v>
       </c>
     </row>
     <row r="15">
@@ -2665,28 +2653,28 @@
         <v>22</v>
       </c>
       <c r="B15" t="n" s="58">
-        <v>0.8714826863942242</v>
+        <v>0.8695865727356927</v>
       </c>
       <c r="C15" t="n" s="59">
-        <v>0.8684913793849974</v>
+        <v>0.8710479567209977</v>
       </c>
       <c r="D15" t="n" s="60">
-        <v>0.9318896552048546</v>
+        <v>0.9144508265523984</v>
       </c>
       <c r="E15" t="n" s="61">
-        <v>0.29216269135535516</v>
+        <v>0.3601645110043987</v>
       </c>
       <c r="F15" t="n" s="62">
-        <v>6.6040642455489325</v>
+        <v>6.754820897536206</v>
       </c>
       <c r="G15" t="n" s="63">
-        <v>0.029349934802576413</v>
+        <v>0.03084766249867924</v>
       </c>
       <c r="H15" t="n" s="64">
-        <v>0.027869682128200988</v>
+        <v>0.022321015279198927</v>
       </c>
       <c r="I15" t="n" s="65">
-        <v>0.28629731106744716</v>
+        <v>0.364457991050968</v>
       </c>
     </row>
     <row r="16">
@@ -2694,28 +2682,28 @@
         <v>23</v>
       </c>
       <c r="B16" t="n" s="58">
-        <v>0.8704066702743871</v>
+        <v>0.861995136149163</v>
       </c>
       <c r="C16" t="n" s="59">
-        <v>0.8669301262937058</v>
+        <v>0.8617977250731403</v>
       </c>
       <c r="D16" t="n" s="60">
-        <v>0.9335823967577603</v>
+        <v>0.9141911354751041</v>
       </c>
       <c r="E16" t="n" s="61">
-        <v>0.28935787935945295</v>
+        <v>0.34195268946202806</v>
       </c>
       <c r="F16" t="n" s="62">
-        <v>6.5148489447517965</v>
+        <v>6.2357709055746575</v>
       </c>
       <c r="G16" t="n" s="63">
-        <v>0.02949810208839027</v>
+        <v>0.0323158759623865</v>
       </c>
       <c r="H16" t="n" s="64">
-        <v>0.029291120795974564</v>
+        <v>0.025142057632000316</v>
       </c>
       <c r="I16" t="n" s="65">
-        <v>0.2796572387625062</v>
+        <v>0.3270646512196095</v>
       </c>
     </row>
     <row r="17">
@@ -2723,28 +2711,28 @@
         <v>24</v>
       </c>
       <c r="B17" t="n" s="58">
-        <v>0.8615885458497982</v>
+        <v>0.8646176342856514</v>
       </c>
       <c r="C17" t="n" s="59">
-        <v>0.8591555314727627</v>
+        <v>0.8648304603978965</v>
       </c>
       <c r="D17" t="n" s="60">
-        <v>0.9279107602890377</v>
+        <v>0.9020646734131157</v>
       </c>
       <c r="E17" t="n" s="61">
-        <v>0.2760190935199517</v>
+        <v>0.34775932058457154</v>
       </c>
       <c r="F17" t="n" s="62">
-        <v>6.100030341671632</v>
+        <v>6.3981164909171495</v>
       </c>
       <c r="G17" t="n" s="63">
-        <v>0.03179408690570577</v>
+        <v>0.031637921560104164</v>
       </c>
       <c r="H17" t="n" s="64">
-        <v>0.027706249662516506</v>
+        <v>0.02273757778465845</v>
       </c>
       <c r="I17" t="n" s="65">
-        <v>0.2673111886904199</v>
+        <v>0.32956386563908546</v>
       </c>
     </row>
     <row r="18">
@@ -2752,28 +2740,28 @@
         <v>25</v>
       </c>
       <c r="B18" t="n" s="58">
-        <v>0.8633398084265523</v>
+        <v>0.8613042099726372</v>
       </c>
       <c r="C18" t="n" s="59">
-        <v>0.8613369988510122</v>
+        <v>0.8606807480443484</v>
       </c>
       <c r="D18" t="n" s="60">
-        <v>0.9344973524578188</v>
+        <v>0.9078596095561287</v>
       </c>
       <c r="E18" t="n" s="61">
-        <v>0.2796598621180332</v>
+        <v>0.3398526149911769</v>
       </c>
       <c r="F18" t="n" s="62">
-        <v>6.211729096542057</v>
+        <v>6.177758895219461</v>
       </c>
       <c r="G18" t="n" s="63">
-        <v>0.03185194304711233</v>
+        <v>0.032542317918672764</v>
       </c>
       <c r="H18" t="n" s="64">
-        <v>0.028669249708029733</v>
+        <v>0.02401191888602563</v>
       </c>
       <c r="I18" t="n" s="65">
-        <v>0.2673111886904199</v>
+        <v>0.3270646512196095</v>
       </c>
     </row>
     <row r="19">
@@ -2781,28 +2769,28 @@
         <v>26</v>
       </c>
       <c r="B19" t="n" s="58">
-        <v>0.8733094000287993</v>
+        <v>0.8505832900017068</v>
       </c>
       <c r="C19" t="n" s="59">
-        <v>0.870377532917205</v>
+        <v>0.8513362092870956</v>
       </c>
       <c r="D19" t="n" s="60">
-        <v>0.9307854643722314</v>
+        <v>0.9023957490781402</v>
       </c>
       <c r="E19" t="n" s="61">
-        <v>0.29561070321502764</v>
+        <v>0.32305075733235994</v>
       </c>
       <c r="F19" t="n" s="62">
-        <v>6.714711982462577</v>
+        <v>5.726587524807392</v>
       </c>
       <c r="G19" t="n" s="63">
-        <v>0.02879115186089741</v>
+        <v>0.03520866710112847</v>
       </c>
       <c r="H19" t="n" s="64">
-        <v>0.0279420824522026</v>
+        <v>0.023136778605734952</v>
       </c>
       <c r="I19" t="n" s="65">
-        <v>0.29267292836119685</v>
+        <v>0.30962411635581344</v>
       </c>
     </row>
     <row r="20">
@@ -2810,28 +2798,28 @@
         <v>27</v>
       </c>
       <c r="B20" t="n" s="58">
-        <v>0.8767946066038458</v>
+        <v>0.8514547595904545</v>
       </c>
       <c r="C20" t="n" s="59">
-        <v>0.8747033399809011</v>
+        <v>0.8528191986585226</v>
       </c>
       <c r="D20" t="n" s="60">
-        <v>0.9393591426975492</v>
+        <v>0.906637672649084</v>
       </c>
       <c r="E20" t="n" s="61">
-        <v>0.3037744604946503</v>
+        <v>0.32562918705626265</v>
       </c>
       <c r="F20" t="n" s="62">
-        <v>6.981058711761116</v>
+        <v>5.794364420396644</v>
       </c>
       <c r="G20" t="n" s="63">
-        <v>0.02821052642145889</v>
+        <v>0.03562782791821738</v>
       </c>
       <c r="H20" t="n" s="64">
-        <v>0.028154256913122424</v>
+        <v>0.0241371407096209</v>
       </c>
       <c r="I20" t="n" s="65">
-        <v>0.29881452336453695</v>
+        <v>0.30962411635581344</v>
       </c>
     </row>
     <row r="21">
@@ -2839,28 +2827,28 @@
         <v>28</v>
       </c>
       <c r="B21" t="n" s="58">
-        <v>0.8693033595603846</v>
+        <v>0.8631677040029152</v>
       </c>
       <c r="C21" t="n" s="59">
-        <v>0.8650806095307625</v>
+        <v>0.8638629900245219</v>
       </c>
       <c r="D21" t="n" s="60">
-        <v>0.9349440504030639</v>
+        <v>0.9129820003516387</v>
       </c>
       <c r="E21" t="n" s="61">
-        <v>0.28609141651350994</v>
+        <v>0.3458901024381161</v>
       </c>
       <c r="F21" t="n" s="62">
-        <v>6.411833069524627</v>
+        <v>6.3455410852649665</v>
       </c>
       <c r="G21" t="n" s="63">
-        <v>0.029737244813265607</v>
+        <v>0.03223218413885434</v>
       </c>
       <c r="H21" t="n" s="64">
-        <v>0.029778075387017922</v>
+        <v>0.025894827139948322</v>
       </c>
       <c r="I21" t="n" s="65">
-        <v>0.28159948867227436</v>
+        <v>0.3373899695046102</v>
       </c>
     </row>
     <row r="22">
@@ -2868,28 +2856,28 @@
         <v>29</v>
       </c>
       <c r="B22" t="n" s="58">
-        <v>0.8706522714358345</v>
+        <v>0.8619724371473712</v>
       </c>
       <c r="C22" t="n" s="59">
-        <v>0.8680934785912903</v>
+        <v>0.8627809285261603</v>
       </c>
       <c r="D22" t="n" s="60">
-        <v>0.9314059703904594</v>
+        <v>0.9094137577842907</v>
       </c>
       <c r="E22" t="n" s="61">
-        <v>0.2914436693778857</v>
+        <v>0.3438182688481753</v>
       </c>
       <c r="F22" t="n" s="62">
-        <v>6.581126310666025</v>
+        <v>6.287616723092658</v>
       </c>
       <c r="G22" t="n" s="63">
-        <v>0.02948860028407683</v>
+        <v>0.03236493598380137</v>
       </c>
       <c r="H22" t="n" s="64">
-        <v>0.027243284838882154</v>
+        <v>0.023848315409984534</v>
       </c>
       <c r="I22" t="n" s="65">
-        <v>0.28629731106744716</v>
+        <v>0.3373899695046102</v>
       </c>
     </row>
     <row r="23">
@@ -2897,681 +2885,645 @@
         <v>30</v>
       </c>
       <c r="B23" t="n" s="58">
-        <v>0.8751060887808134</v>
+        <v>0.8643730925599429</v>
       </c>
       <c r="C23" t="n" s="59">
-        <v>0.8719251319944786</v>
+        <v>0.8649743244596952</v>
       </c>
       <c r="D23" t="n" s="60">
-        <v>0.9370612615363277</v>
+        <v>0.9109256450577209</v>
       </c>
       <c r="E23" t="n" s="61">
-        <v>0.2984896993382215</v>
+        <v>0.3480386428883145</v>
       </c>
       <c r="F23" t="n" s="62">
-        <v>6.8079330907988105</v>
+        <v>6.40599886650079</v>
       </c>
       <c r="G23" t="n" s="63">
-        <v>0.02863554879639641</v>
+        <v>0.03193375855762583</v>
       </c>
       <c r="H23" t="n" s="64">
-        <v>0.028794312712802434</v>
+        <v>0.023916778342606602</v>
       </c>
       <c r="I23" t="n" s="65">
-        <v>0.29267292836119685</v>
+        <v>0.34607941231005296</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s" s="53">
+      <c r="A24" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="69">
         <v>31</v>
       </c>
-      <c r="B24" t="n" s="58">
-        <v>0.8764957264957265</v>
-      </c>
-      <c r="C24" t="n" s="59">
-        <v>0.8752859521689286</v>
-      </c>
-      <c r="D24" t="n" s="60">
-        <v>0.9388441196428827</v>
-      </c>
-      <c r="E24" t="n" s="61">
-        <v>0.3049021786986356</v>
-      </c>
-      <c r="F24" t="n" s="62">
-        <v>7.018342900348542</v>
-      </c>
-      <c r="G24" t="n" s="63">
-        <v>0.02839116625988551</v>
-      </c>
-      <c r="H24" t="n" s="64">
-        <v>0.028130368282559194</v>
-      </c>
-      <c r="I24" t="n" s="65">
-        <v>0.29864485391401924</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="53">
+    </row>
+    <row r="27">
+      <c r="A27"/>
+      <c r="B27" t="s" s="83">
         <v>32</v>
       </c>
-      <c r="B25" t="n" s="58">
-        <v>0.8803771150323288</v>
-      </c>
-      <c r="C25" t="n" s="59">
-        <v>0.8789671574313482</v>
-      </c>
-      <c r="D25" t="n" s="60">
-        <v>0.9424095787835366</v>
-      </c>
-      <c r="E25" t="n" s="61">
-        <v>0.3121894710015426</v>
-      </c>
-      <c r="F25" t="n" s="62">
-        <v>7.262220226983301</v>
-      </c>
-      <c r="G25" t="n" s="63">
-        <v>0.027559450495081576</v>
-      </c>
-      <c r="H25" t="n" s="64">
-        <v>0.027228988616373268</v>
-      </c>
-      <c r="I25" t="n" s="65">
-        <v>0.308465997480235</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s" s="53">
+      <c r="C27" t="s" s="83">
         <v>33</v>
       </c>
-      <c r="B26" t="n" s="58">
-        <v>0.8729833672676484</v>
-      </c>
-      <c r="C26" t="n" s="59">
-        <v>0.8705254444547836</v>
-      </c>
-      <c r="D26" t="n" s="60">
-        <v>0.9364326755579259</v>
-      </c>
-      <c r="E26" t="n" s="61">
-        <v>0.29588389924289416</v>
-      </c>
-      <c r="F26" t="n" s="62">
-        <v>6.723525257831608</v>
-      </c>
-      <c r="G26" t="n" s="63">
-        <v>0.029049720287300296</v>
-      </c>
-      <c r="H26" t="n" s="64">
-        <v>0.028449650387652566</v>
-      </c>
-      <c r="I26" t="n" s="65">
-        <v>0.29540821366926795</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="53">
+      <c r="D27" t="s" s="83">
         <v>34</v>
       </c>
-      <c r="B27" t="n" s="58">
-        <v>0.8717381028620221</v>
-      </c>
-      <c r="C27" t="n" s="59">
-        <v>0.8692595614605987</v>
-      </c>
-      <c r="D27" t="n" s="60">
-        <v>0.9360658292398328</v>
-      </c>
-      <c r="E27" t="n" s="61">
-        <v>0.29355902549816254</v>
-      </c>
-      <c r="F27" t="n" s="62">
-        <v>6.648742892189621</v>
-      </c>
-      <c r="G27" t="n" s="63">
-        <v>0.02925859179423623</v>
-      </c>
-      <c r="H27" t="n" s="64">
-        <v>0.028849294267188276</v>
-      </c>
-      <c r="I27" t="n" s="65">
-        <v>0.2907164199101976</v>
+      <c r="E27" t="s" s="83">
+        <v>35</v>
+      </c>
+      <c r="F27" t="s" s="83">
+        <v>36</v>
+      </c>
+      <c r="G27" t="s" s="83">
+        <v>9</v>
+      </c>
+      <c r="H27" t="s" s="83">
+        <v>10</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="s">
-        <v>1</v>
+      <c r="A28" t="s" s="79">
+        <v>18</v>
+      </c>
+      <c r="B28" t="n" s="84">
+        <v>37.0</v>
+      </c>
+      <c r="C28" t="n" s="85">
+        <v>0.4936683408327029</v>
+      </c>
+      <c r="D28" t="n" s="86">
+        <v>0.47268615955146126</v>
+      </c>
+      <c r="E28" t="n" s="87">
+        <v>0.427827950034684</v>
+      </c>
+      <c r="F28" t="n" s="88">
+        <v>0.37612442436768395</v>
+      </c>
+      <c r="G28" t="n" s="89">
+        <v>3.054054054054054</v>
+      </c>
+      <c r="H28" t="n" s="90">
+        <v>1.2898308663013394</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="s">
-        <v>1</v>
+      <c r="A29" t="s" s="79">
+        <v>19</v>
+      </c>
+      <c r="B29" t="n" s="84">
+        <v>37.0</v>
+      </c>
+      <c r="C29" t="n" s="85">
+        <v>0.6128689753988147</v>
+      </c>
+      <c r="D29" t="n" s="86">
+        <v>0.5846480583760958</v>
+      </c>
+      <c r="E29" t="n" s="87">
+        <v>0.5568869154752107</v>
+      </c>
+      <c r="F29" t="n" s="88">
+        <v>0.5088754238753389</v>
+      </c>
+      <c r="G29" t="n" s="89">
+        <v>2.864864864864865</v>
+      </c>
+      <c r="H29" t="n" s="90">
+        <v>1.3367074424820065</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="s" s="69">
-        <v>35</v>
+      <c r="A30" t="s" s="79">
+        <v>20</v>
+      </c>
+      <c r="B30" t="n" s="84">
+        <v>37.0</v>
+      </c>
+      <c r="C30" t="n" s="85">
+        <v>0.7735330552559542</v>
+      </c>
+      <c r="D30" t="n" s="86">
+        <v>0.7521194845866677</v>
+      </c>
+      <c r="E30" t="n" s="87">
+        <v>0.7458777388611499</v>
+      </c>
+      <c r="F30" t="n" s="88">
+        <v>0.711291618187407</v>
+      </c>
+      <c r="G30" t="n" s="89">
+        <v>2.4054054054054053</v>
+      </c>
+      <c r="H30" t="n" s="90">
+        <v>1.2124231810593074</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31"/>
-      <c r="B31" t="s" s="83">
-        <v>36</v>
-      </c>
-      <c r="C31" t="s" s="83">
-        <v>37</v>
-      </c>
-      <c r="D31" t="s" s="83">
-        <v>38</v>
-      </c>
-      <c r="E31" t="s" s="83">
-        <v>39</v>
-      </c>
-      <c r="F31" t="s" s="83">
-        <v>40</v>
-      </c>
-      <c r="G31" t="s" s="83">
-        <v>9</v>
-      </c>
-      <c r="H31" t="s" s="83">
-        <v>10</v>
+      <c r="A31" t="s" s="79">
+        <v>21</v>
+      </c>
+      <c r="B31" t="n" s="84">
+        <v>37.0</v>
+      </c>
+      <c r="C31" t="n" s="85">
+        <v>0.7091650007369719</v>
+      </c>
+      <c r="D31" t="n" s="86">
+        <v>0.6865991189401358</v>
+      </c>
+      <c r="E31" t="n" s="87">
+        <v>0.6721656667799717</v>
+      </c>
+      <c r="F31" t="n" s="88">
+        <v>0.6384336591969272</v>
+      </c>
+      <c r="G31" t="n" s="89">
+        <v>2.2432432432432434</v>
+      </c>
+      <c r="H31" t="n" s="90">
+        <v>1.1403071078881777</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="79">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B32" t="n" s="84">
         <v>37.0</v>
       </c>
       <c r="C32" t="n" s="85">
-        <v>0.6070910434563945</v>
+        <v>0.44485614762356857</v>
       </c>
       <c r="D32" t="n" s="86">
-        <v>0.5808167199909469</v>
+        <v>0.47881637436208707</v>
       </c>
       <c r="E32" t="n" s="87">
-        <v>0.5655346801176838</v>
+        <v>0.4324935870159728</v>
       </c>
       <c r="F32" t="n" s="88">
-        <v>0.5173798435945347</v>
+        <v>0.36484026028915656</v>
       </c>
       <c r="G32" t="n" s="89">
-        <v>2.864864864864865</v>
+        <v>3.6216216216216215</v>
       </c>
       <c r="H32" t="n" s="90">
-        <v>1.3367074424820065</v>
+        <v>0.861244298524955</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="79">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B33" t="n" s="84">
         <v>37.0</v>
       </c>
       <c r="C33" t="n" s="85">
-        <v>0.7644380021898715</v>
+        <v>0.6047194769081884</v>
       </c>
       <c r="D33" t="n" s="86">
-        <v>0.7388735793748411</v>
+        <v>0.6263884257344232</v>
       </c>
       <c r="E33" t="n" s="87">
-        <v>0.7373063033944937</v>
+        <v>0.5865789878143587</v>
       </c>
       <c r="F33" t="n" s="88">
-        <v>0.7097527112519325</v>
+        <v>0.5296546725793794</v>
       </c>
       <c r="G33" t="n" s="89">
         <v>2.4054054054054053</v>
       </c>
       <c r="H33" t="n" s="90">
-        <v>1.2124231810593074</v>
+        <v>0.9848705346236987</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="79">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B34" t="n" s="84">
         <v>37.0</v>
       </c>
       <c r="C34" t="n" s="85">
-        <v>0.5450430851223842</v>
+        <v>0.561453223455188</v>
       </c>
       <c r="D34" t="n" s="86">
-        <v>0.5358633133186106</v>
+        <v>0.5793367640254292</v>
       </c>
       <c r="E34" t="n" s="87">
-        <v>0.5295043967711358</v>
+        <v>0.5648627040003558</v>
       </c>
       <c r="F34" t="n" s="88">
-        <v>0.4502910826415482</v>
+        <v>0.4763461564543318</v>
       </c>
       <c r="G34" t="n" s="89">
-        <v>3.054054054054054</v>
+        <v>3.081081081081081</v>
       </c>
       <c r="H34" t="n" s="90">
-        <v>1.2898308663013394</v>
+        <v>1.037582081850191</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="79">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B35" t="n" s="84">
         <v>37.0</v>
       </c>
       <c r="C35" t="n" s="85">
-        <v>0.6968049220580379</v>
+        <v>0.6183114118116438</v>
       </c>
       <c r="D35" t="n" s="86">
-        <v>0.6695384555933032</v>
+        <v>0.6434055207557613</v>
       </c>
       <c r="E35" t="n" s="87">
-        <v>0.660621998246872</v>
+        <v>0.6229033031376319</v>
       </c>
       <c r="F35" t="n" s="88">
-        <v>0.6344636641682889</v>
+        <v>0.5500223534118877</v>
       </c>
       <c r="G35" t="n" s="89">
-        <v>2.2432432432432434</v>
+        <v>2.3783783783783785</v>
       </c>
       <c r="H35" t="n" s="90">
-        <v>1.1403071078881777</v>
+        <v>0.9235003263956396</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="79">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B36" t="n" s="84">
         <v>37.0</v>
       </c>
       <c r="C36" t="n" s="85">
-        <v>0.5716683237789674</v>
+        <v>0.7758832761297799</v>
       </c>
       <c r="D36" t="n" s="86">
-        <v>0.581335860844777</v>
+        <v>0.7795525061525257</v>
       </c>
       <c r="E36" t="n" s="87">
-        <v>0.5730850318058106</v>
+        <v>0.7754755972931442</v>
       </c>
       <c r="F36" t="n" s="88">
-        <v>0.5082047756713192</v>
+        <v>0.7164726186570051</v>
       </c>
       <c r="G36" t="n" s="89">
-        <v>2.3783783783783785</v>
+        <v>2.891891891891892</v>
       </c>
       <c r="H36" t="n" s="90">
-        <v>0.9235003263956396</v>
+        <v>1.1734039700277465</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="79">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B37" t="n" s="84">
         <v>37.0</v>
       </c>
       <c r="C37" t="n" s="85">
-        <v>0.598961488296956</v>
+        <v>0.7743758592868609</v>
       </c>
       <c r="D37" t="n" s="86">
-        <v>0.6155909057188841</v>
+        <v>0.7586592548766734</v>
       </c>
       <c r="E37" t="n" s="87">
-        <v>0.6003834020510715</v>
+        <v>0.7437102558018494</v>
       </c>
       <c r="F37" t="n" s="88">
-        <v>0.5339033033387793</v>
+        <v>0.6943918608130585</v>
       </c>
       <c r="G37" t="n" s="89">
-        <v>2.4054054054054053</v>
+        <v>2.5135135135135136</v>
       </c>
       <c r="H37" t="n" s="90">
-        <v>0.9848705346236987</v>
+        <v>1.5022505639062869</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="79">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B38" t="n" s="84">
         <v>37.0</v>
       </c>
       <c r="C38" t="n" s="85">
-        <v>0.7780354604880003</v>
+        <v>0.582498836306113</v>
       </c>
       <c r="D38" t="n" s="86">
-        <v>0.7784969073210513</v>
+        <v>0.5944832091898004</v>
       </c>
       <c r="E38" t="n" s="87">
-        <v>0.7814240501946912</v>
+        <v>0.5511767767899014</v>
       </c>
       <c r="F38" t="n" s="88">
-        <v>0.7278718235957008</v>
+        <v>0.5118593776889918</v>
       </c>
       <c r="G38" t="n" s="89">
-        <v>2.891891891891892</v>
+        <v>3.5405405405405403</v>
       </c>
       <c r="H38" t="n" s="90">
-        <v>1.1734039700277465</v>
+        <v>0.9004503377814963</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="79">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B39" t="n" s="84">
         <v>37.0</v>
       </c>
       <c r="C39" t="n" s="85">
-        <v>0.755662062971506</v>
+        <v>0.6158612448956472</v>
       </c>
       <c r="D39" t="n" s="86">
-        <v>0.7340323614314412</v>
+        <v>0.611271465776784</v>
       </c>
       <c r="E39" t="n" s="87">
-        <v>0.7200093222560463</v>
+        <v>0.5845027314210629</v>
       </c>
       <c r="F39" t="n" s="88">
-        <v>0.683515649949591</v>
+        <v>0.5273751606337819</v>
       </c>
       <c r="G39" t="n" s="89">
-        <v>2.5135135135135136</v>
+        <v>2.6216216216216215</v>
       </c>
       <c r="H39" t="n" s="90">
-        <v>1.5022505639062869</v>
+        <v>1.1631220283585264</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="79">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B40" t="n" s="84">
         <v>37.0</v>
       </c>
       <c r="C40" t="n" s="85">
-        <v>0.5317825563477239</v>
+        <v>0.5590270025298443</v>
       </c>
       <c r="D40" t="n" s="86">
-        <v>0.5392254444774429</v>
+        <v>0.5770733899163932</v>
       </c>
       <c r="E40" t="n" s="87">
-        <v>0.5320099818520412</v>
+        <v>0.5472108411338193</v>
       </c>
       <c r="F40" t="n" s="88">
-        <v>0.4556206084747401</v>
+        <v>0.4829899321551677</v>
       </c>
       <c r="G40" t="n" s="89">
-        <v>3.081081081081081</v>
+        <v>3.27027027027027</v>
       </c>
       <c r="H40" t="n" s="90">
-        <v>1.037582081850191</v>
+        <v>0.9323997905240913</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="s" s="79">
-        <v>27</v>
-      </c>
-      <c r="B41" t="n" s="84">
-        <v>37.0</v>
-      </c>
-      <c r="C41" t="n" s="85">
-        <v>0.41697665069084827</v>
-      </c>
-      <c r="D41" t="n" s="86">
-        <v>0.4395218378316648</v>
-      </c>
-      <c r="E41" t="n" s="87">
-        <v>0.40341049415319485</v>
-      </c>
-      <c r="F41" t="n" s="88">
-        <v>0.34616091525764775</v>
-      </c>
-      <c r="G41" t="n" s="89">
-        <v>3.6216216216216215</v>
-      </c>
-      <c r="H41" t="n" s="90">
-        <v>0.861244298524955</v>
+      <c r="A41" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="s" s="79">
-        <v>28</v>
-      </c>
-      <c r="B42" t="n" s="84">
-        <v>37.0</v>
-      </c>
-      <c r="C42" t="n" s="85">
-        <v>0.6308613273623626</v>
-      </c>
-      <c r="D42" t="n" s="86">
-        <v>0.6554840720098356</v>
-      </c>
-      <c r="E42" t="n" s="87">
-        <v>0.638335415085844</v>
-      </c>
-      <c r="F42" t="n" s="88">
-        <v>0.575165086962148</v>
-      </c>
-      <c r="G42" t="n" s="89">
-        <v>3.5405405405405403</v>
-      </c>
-      <c r="H42" t="n" s="90">
-        <v>0.9004503377814963</v>
+      <c r="A42" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="s" s="79">
-        <v>29</v>
-      </c>
-      <c r="B43" t="n" s="84">
-        <v>37.0</v>
-      </c>
-      <c r="C43" t="n" s="85">
-        <v>0.5930766176264639</v>
-      </c>
-      <c r="D43" t="n" s="86">
-        <v>0.5901172444596752</v>
-      </c>
-      <c r="E43" t="n" s="87">
-        <v>0.5863265384816886</v>
-      </c>
-      <c r="F43" t="n" s="88">
-        <v>0.5301077654030693</v>
-      </c>
-      <c r="G43" t="n" s="89">
-        <v>3.2162162162162162</v>
-      </c>
-      <c r="H43" t="n" s="90">
-        <v>0.94678212720583</v>
+      <c r="A43" t="s" s="94">
+        <v>37</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="s" s="79">
-        <v>30</v>
-      </c>
-      <c r="B44" t="n" s="84">
-        <v>37.0</v>
-      </c>
-      <c r="C44" t="n" s="85">
-        <v>0.46328598316087266</v>
-      </c>
-      <c r="D44" t="n" s="86">
-        <v>0.5040643921372256</v>
-      </c>
-      <c r="E44" t="n" s="87">
-        <v>0.476720933897645</v>
-      </c>
-      <c r="F44" t="n" s="88">
-        <v>0.40838368648095585</v>
-      </c>
-      <c r="G44" t="n" s="89">
-        <v>3.054054054054054</v>
-      </c>
-      <c r="H44" t="n" s="90">
-        <v>0.7049801394344362</v>
+      <c r="A44"/>
+      <c r="B44" t="s" s="108">
+        <v>38</v>
+      </c>
+      <c r="C44" t="s" s="108">
+        <v>39</v>
+      </c>
+      <c r="D44" t="s" s="108">
+        <v>40</v>
+      </c>
+      <c r="E44" t="s" s="108">
+        <v>41</v>
+      </c>
+      <c r="F44" t="s" s="108">
+        <v>42</v>
+      </c>
+      <c r="G44" t="s" s="108">
+        <v>43</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="s" s="79">
-        <v>31</v>
-      </c>
-      <c r="B45" t="n" s="84">
-        <v>37.0</v>
-      </c>
-      <c r="C45" t="n" s="85">
-        <v>0.4187815301990357</v>
-      </c>
-      <c r="D45" t="n" s="86">
-        <v>0.4257490652753215</v>
-      </c>
-      <c r="E45" t="n" s="87">
-        <v>0.3942981095646022</v>
-      </c>
-      <c r="F45" t="n" s="88">
-        <v>0.35334660575345245</v>
-      </c>
-      <c r="G45" t="n" s="89">
-        <v>4.162162162162162</v>
-      </c>
-      <c r="H45" t="n" s="90">
-        <v>0.7997747430618447</v>
+      <c r="A45" t="s" s="104">
+        <v>18</v>
+      </c>
+      <c r="B45" t="n" s="109">
+        <v>0.02702702702702703</v>
+      </c>
+      <c r="C45" t="n" s="110">
+        <v>0.4594594594594595</v>
+      </c>
+      <c r="D45" t="n" s="111">
+        <v>0.1891891891891892</v>
+      </c>
+      <c r="E45" t="n" s="112">
+        <v>0.08108108108108109</v>
+      </c>
+      <c r="F45" t="n" s="113">
+        <v>0.24324324324324326</v>
+      </c>
+      <c r="G45" t="n" s="114">
+        <v>0.0</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="s" s="79">
-        <v>32</v>
-      </c>
-      <c r="B46" t="n" s="84">
-        <v>37.0</v>
-      </c>
-      <c r="C46" t="n" s="85">
-        <v>0.31367364982215534</v>
-      </c>
-      <c r="D46" t="n" s="86">
-        <v>0.3367496866319343</v>
-      </c>
-      <c r="E46" t="n" s="87">
-        <v>0.2824120004796245</v>
-      </c>
-      <c r="F46" t="n" s="88">
-        <v>0.23505052532835483</v>
-      </c>
-      <c r="G46" t="n" s="89">
-        <v>3.135135135135135</v>
-      </c>
-      <c r="H46" t="n" s="90">
-        <v>0.8870100263169446</v>
+      <c r="A46" t="s" s="104">
+        <v>19</v>
+      </c>
+      <c r="B46" t="n" s="109">
+        <v>0.2702702702702703</v>
+      </c>
+      <c r="C46" t="n" s="110">
+        <v>0.08108108108108109</v>
+      </c>
+      <c r="D46" t="n" s="111">
+        <v>0.21621621621621623</v>
+      </c>
+      <c r="E46" t="n" s="112">
+        <v>0.3783783783783784</v>
+      </c>
+      <c r="F46" t="n" s="113">
+        <v>0.05405405405405406</v>
+      </c>
+      <c r="G46" t="n" s="114">
+        <v>0.0</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="s" s="79">
-        <v>33</v>
-      </c>
-      <c r="B47" t="n" s="84">
-        <v>37.0</v>
-      </c>
-      <c r="C47" t="n" s="85">
-        <v>0.5318775574894041</v>
-      </c>
-      <c r="D47" t="n" s="86">
-        <v>0.5358889134701358</v>
-      </c>
-      <c r="E47" t="n" s="87">
-        <v>0.5116323573130197</v>
-      </c>
-      <c r="F47" t="n" s="88">
-        <v>0.4639665497580252</v>
-      </c>
-      <c r="G47" t="n" s="89">
-        <v>3.27027027027027</v>
-      </c>
-      <c r="H47" t="n" s="90">
-        <v>0.9323997905240913</v>
+      <c r="A47" t="s" s="104">
+        <v>20</v>
+      </c>
+      <c r="B47" t="n" s="109">
+        <v>0.35135135135135137</v>
+      </c>
+      <c r="C47" t="n" s="110">
+        <v>0.13513513513513514</v>
+      </c>
+      <c r="D47" t="n" s="111">
+        <v>0.2702702702702703</v>
+      </c>
+      <c r="E47" t="n" s="112">
+        <v>0.24324324324324326</v>
+      </c>
+      <c r="F47" t="n" s="113">
+        <v>0.0</v>
+      </c>
+      <c r="G47" t="n" s="114">
+        <v>0.0</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="s" s="79">
-        <v>34</v>
-      </c>
-      <c r="B48" t="n" s="84">
-        <v>37.0</v>
-      </c>
-      <c r="C48" t="n" s="85">
-        <v>0.5803208112621814</v>
-      </c>
-      <c r="D48" t="n" s="86">
-        <v>0.5642824937060903</v>
-      </c>
-      <c r="E48" t="n" s="87">
-        <v>0.5418459526850641</v>
-      </c>
-      <c r="F48" t="n" s="88">
-        <v>0.49993362681447445</v>
-      </c>
-      <c r="G48" t="n" s="89">
-        <v>2.6216216216216215</v>
-      </c>
-      <c r="H48" t="n" s="90">
-        <v>1.1631220283585264</v>
+      <c r="A48" t="s" s="104">
+        <v>21</v>
+      </c>
+      <c r="B48" t="n" s="109">
+        <v>0.35135135135135137</v>
+      </c>
+      <c r="C48" t="n" s="110">
+        <v>0.24324324324324326</v>
+      </c>
+      <c r="D48" t="n" s="111">
+        <v>0.21621621621621623</v>
+      </c>
+      <c r="E48" t="n" s="112">
+        <v>0.1891891891891892</v>
+      </c>
+      <c r="F48" t="n" s="113">
+        <v>0.0</v>
+      </c>
+      <c r="G48" t="n" s="114">
+        <v>0.0</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="s">
-        <v>1</v>
+      <c r="A49" t="s" s="104">
+        <v>22</v>
+      </c>
+      <c r="B49" t="n" s="109">
+        <v>0.02702702702702703</v>
+      </c>
+      <c r="C49" t="n" s="110">
+        <v>0.05405405405405406</v>
+      </c>
+      <c r="D49" t="n" s="111">
+        <v>0.2972972972972973</v>
+      </c>
+      <c r="E49" t="n" s="112">
+        <v>0.5135135135135135</v>
+      </c>
+      <c r="F49" t="n" s="113">
+        <v>0.10810810810810811</v>
+      </c>
+      <c r="G49" t="n" s="114">
+        <v>0.0</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="s">
-        <v>1</v>
+      <c r="A50" t="s" s="104">
+        <v>23</v>
+      </c>
+      <c r="B50" t="n" s="109">
+        <v>0.16216216216216217</v>
+      </c>
+      <c r="C50" t="n" s="110">
+        <v>0.4594594594594595</v>
+      </c>
+      <c r="D50" t="n" s="111">
+        <v>0.1891891891891892</v>
+      </c>
+      <c r="E50" t="n" s="112">
+        <v>0.1891891891891892</v>
+      </c>
+      <c r="F50" t="n" s="113">
+        <v>0.0</v>
+      </c>
+      <c r="G50" t="n" s="114">
+        <v>0.0</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="s" s="94">
-        <v>41</v>
+      <c r="A51" t="s" s="104">
+        <v>24</v>
+      </c>
+      <c r="B51" t="n" s="109">
+        <v>0.05405405405405406</v>
+      </c>
+      <c r="C51" t="n" s="110">
+        <v>0.21621621621621623</v>
+      </c>
+      <c r="D51" t="n" s="111">
+        <v>0.43243243243243246</v>
+      </c>
+      <c r="E51" t="n" s="112">
+        <v>0.1891891891891892</v>
+      </c>
+      <c r="F51" t="n" s="113">
+        <v>0.10810810810810811</v>
+      </c>
+      <c r="G51" t="n" s="114">
+        <v>0.0</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52"/>
-      <c r="B52" t="s" s="108">
-        <v>42</v>
-      </c>
-      <c r="C52" t="s" s="108">
-        <v>43</v>
-      </c>
-      <c r="D52" t="s" s="108">
-        <v>44</v>
-      </c>
-      <c r="E52" t="s" s="108">
-        <v>45</v>
-      </c>
-      <c r="F52" t="s" s="108">
-        <v>46</v>
-      </c>
-      <c r="G52" t="s" s="108">
-        <v>47</v>
+      <c r="A52" t="s" s="104">
+        <v>25</v>
+      </c>
+      <c r="B52" t="n" s="109">
+        <v>0.13513513513513514</v>
+      </c>
+      <c r="C52" t="n" s="110">
+        <v>0.4864864864864865</v>
+      </c>
+      <c r="D52" t="n" s="111">
+        <v>0.2702702702702703</v>
+      </c>
+      <c r="E52" t="n" s="112">
+        <v>0.08108108108108109</v>
+      </c>
+      <c r="F52" t="n" s="113">
+        <v>0.02702702702702703</v>
+      </c>
+      <c r="G52" t="n" s="114">
+        <v>0.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="104">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B53" t="n" s="109">
-        <v>0.2702702702702703</v>
+        <v>0.08108108108108109</v>
       </c>
       <c r="C53" t="n" s="110">
-        <v>0.08108108108108109</v>
+        <v>0.3783783783783784</v>
       </c>
       <c r="D53" t="n" s="111">
         <v>0.21621621621621623</v>
       </c>
       <c r="E53" t="n" s="112">
-        <v>0.3783783783783784</v>
+        <v>0.21621621621621623</v>
       </c>
       <c r="F53" t="n" s="113">
-        <v>0.05405405405405406</v>
+        <v>0.10810810810810811</v>
       </c>
       <c r="G53" t="n" s="114">
         <v>0.0</v>
@@ -3579,22 +3531,22 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="104">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B54" t="n" s="109">
-        <v>0.35135135135135137</v>
+        <v>0.40540540540540543</v>
       </c>
       <c r="C54" t="n" s="110">
+        <v>0.10810810810810811</v>
+      </c>
+      <c r="D54" t="n" s="111">
+        <v>0.1891891891891892</v>
+      </c>
+      <c r="E54" t="n" s="112">
+        <v>0.16216216216216217</v>
+      </c>
+      <c r="F54" t="n" s="113">
         <v>0.13513513513513514</v>
-      </c>
-      <c r="D54" t="n" s="111">
-        <v>0.2702702702702703</v>
-      </c>
-      <c r="E54" t="n" s="112">
-        <v>0.24324324324324326</v>
-      </c>
-      <c r="F54" t="n" s="113">
-        <v>0.0</v>
       </c>
       <c r="G54" t="n" s="114">
         <v>0.0</v>
@@ -3602,22 +3554,22 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="104">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B55" t="n" s="109">
         <v>0.02702702702702703</v>
       </c>
       <c r="C55" t="n" s="110">
+        <v>0.08108108108108109</v>
+      </c>
+      <c r="D55" t="n" s="111">
+        <v>0.32432432432432434</v>
+      </c>
+      <c r="E55" t="n" s="112">
         <v>0.4594594594594595</v>
       </c>
-      <c r="D55" t="n" s="111">
-        <v>0.1891891891891892</v>
-      </c>
-      <c r="E55" t="n" s="112">
-        <v>0.08108108108108109</v>
-      </c>
       <c r="F55" t="n" s="113">
-        <v>0.24324324324324326</v>
+        <v>0.10810810810810811</v>
       </c>
       <c r="G55" t="n" s="114">
         <v>0.0</v>
@@ -3625,22 +3577,22 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="104">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B56" t="n" s="109">
-        <v>0.35135135135135137</v>
+        <v>0.1891891891891892</v>
       </c>
       <c r="C56" t="n" s="110">
-        <v>0.24324324324324326</v>
+        <v>0.2972972972972973</v>
       </c>
       <c r="D56" t="n" s="111">
-        <v>0.21621621621621623</v>
+        <v>0.2702702702702703</v>
       </c>
       <c r="E56" t="n" s="112">
         <v>0.1891891891891892</v>
       </c>
       <c r="F56" t="n" s="113">
-        <v>0.0</v>
+        <v>0.05405405405405406</v>
       </c>
       <c r="G56" t="n" s="114">
         <v>0.0</v>
@@ -3648,300 +3600,24 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="104">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B57" t="n" s="109">
-        <v>0.13513513513513514</v>
+        <v>0.05405405405405406</v>
       </c>
       <c r="C57" t="n" s="110">
-        <v>0.4864864864864865</v>
+        <v>0.10810810810810811</v>
       </c>
       <c r="D57" t="n" s="111">
-        <v>0.2702702702702703</v>
+        <v>0.40540540540540543</v>
       </c>
       <c r="E57" t="n" s="112">
-        <v>0.08108108108108109</v>
+        <v>0.3783783783783784</v>
       </c>
       <c r="F57" t="n" s="113">
-        <v>0.02702702702702703</v>
+        <v>0.05405405405405406</v>
       </c>
       <c r="G57" t="n" s="114">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="s" s="104">
-        <v>23</v>
-      </c>
-      <c r="B58" t="n" s="109">
-        <v>0.16216216216216217</v>
-      </c>
-      <c r="C58" t="n" s="110">
-        <v>0.4594594594594595</v>
-      </c>
-      <c r="D58" t="n" s="111">
-        <v>0.1891891891891892</v>
-      </c>
-      <c r="E58" t="n" s="112">
-        <v>0.1891891891891892</v>
-      </c>
-      <c r="F58" t="n" s="113">
-        <v>0.0</v>
-      </c>
-      <c r="G58" t="n" s="114">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="s" s="104">
-        <v>24</v>
-      </c>
-      <c r="B59" t="n" s="109">
-        <v>0.08108108108108109</v>
-      </c>
-      <c r="C59" t="n" s="110">
-        <v>0.3783783783783784</v>
-      </c>
-      <c r="D59" t="n" s="111">
-        <v>0.21621621621621623</v>
-      </c>
-      <c r="E59" t="n" s="112">
-        <v>0.21621621621621623</v>
-      </c>
-      <c r="F59" t="n" s="113">
-        <v>0.10810810810810811</v>
-      </c>
-      <c r="G59" t="n" s="114">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="s" s="104">
-        <v>25</v>
-      </c>
-      <c r="B60" t="n" s="109">
-        <v>0.40540540540540543</v>
-      </c>
-      <c r="C60" t="n" s="110">
-        <v>0.10810810810810811</v>
-      </c>
-      <c r="D60" t="n" s="111">
-        <v>0.1891891891891892</v>
-      </c>
-      <c r="E60" t="n" s="112">
-        <v>0.16216216216216217</v>
-      </c>
-      <c r="F60" t="n" s="113">
-        <v>0.13513513513513514</v>
-      </c>
-      <c r="G60" t="n" s="114">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="s" s="104">
-        <v>26</v>
-      </c>
-      <c r="B61" t="n" s="109">
-        <v>0.05405405405405406</v>
-      </c>
-      <c r="C61" t="n" s="110">
-        <v>0.21621621621621623</v>
-      </c>
-      <c r="D61" t="n" s="111">
-        <v>0.43243243243243246</v>
-      </c>
-      <c r="E61" t="n" s="112">
-        <v>0.1891891891891892</v>
-      </c>
-      <c r="F61" t="n" s="113">
-        <v>0.10810810810810811</v>
-      </c>
-      <c r="G61" t="n" s="114">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="s" s="104">
-        <v>27</v>
-      </c>
-      <c r="B62" t="n" s="109">
-        <v>0.02702702702702703</v>
-      </c>
-      <c r="C62" t="n" s="110">
-        <v>0.05405405405405406</v>
-      </c>
-      <c r="D62" t="n" s="111">
-        <v>0.2972972972972973</v>
-      </c>
-      <c r="E62" t="n" s="112">
-        <v>0.5135135135135135</v>
-      </c>
-      <c r="F62" t="n" s="113">
-        <v>0.10810810810810811</v>
-      </c>
-      <c r="G62" t="n" s="114">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="s" s="104">
-        <v>28</v>
-      </c>
-      <c r="B63" t="n" s="109">
-        <v>0.02702702702702703</v>
-      </c>
-      <c r="C63" t="n" s="110">
-        <v>0.08108108108108109</v>
-      </c>
-      <c r="D63" t="n" s="111">
-        <v>0.32432432432432434</v>
-      </c>
-      <c r="E63" t="n" s="112">
-        <v>0.4594594594594595</v>
-      </c>
-      <c r="F63" t="n" s="113">
-        <v>0.10810810810810811</v>
-      </c>
-      <c r="G63" t="n" s="114">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="s" s="104">
-        <v>29</v>
-      </c>
-      <c r="B64" t="n" s="109">
-        <v>0.0</v>
-      </c>
-      <c r="C64" t="n" s="110">
-        <v>0.2702702702702703</v>
-      </c>
-      <c r="D64" t="n" s="111">
-        <v>0.32432432432432434</v>
-      </c>
-      <c r="E64" t="n" s="112">
-        <v>0.32432432432432434</v>
-      </c>
-      <c r="F64" t="n" s="113">
-        <v>0.08108108108108109</v>
-      </c>
-      <c r="G64" t="n" s="114">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="s" s="104">
-        <v>30</v>
-      </c>
-      <c r="B65" t="n" s="109">
-        <v>0.0</v>
-      </c>
-      <c r="C65" t="n" s="110">
-        <v>0.16216216216216217</v>
-      </c>
-      <c r="D65" t="n" s="111">
-        <v>0.6756756756756757</v>
-      </c>
-      <c r="E65" t="n" s="112">
-        <v>0.10810810810810811</v>
-      </c>
-      <c r="F65" t="n" s="113">
-        <v>0.05405405405405406</v>
-      </c>
-      <c r="G65" t="n" s="114">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="s" s="104">
-        <v>31</v>
-      </c>
-      <c r="B66" t="n" s="109">
-        <v>0.0</v>
-      </c>
-      <c r="C66" t="n" s="110">
-        <v>0.02702702702702703</v>
-      </c>
-      <c r="D66" t="n" s="111">
-        <v>0.16216216216216217</v>
-      </c>
-      <c r="E66" t="n" s="112">
-        <v>0.43243243243243246</v>
-      </c>
-      <c r="F66" t="n" s="113">
-        <v>0.3783783783783784</v>
-      </c>
-      <c r="G66" t="n" s="114">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="s" s="104">
-        <v>32</v>
-      </c>
-      <c r="B67" t="n" s="109">
-        <v>0.02702702702702703</v>
-      </c>
-      <c r="C67" t="n" s="110">
-        <v>0.24324324324324326</v>
-      </c>
-      <c r="D67" t="n" s="111">
-        <v>0.2972972972972973</v>
-      </c>
-      <c r="E67" t="n" s="112">
-        <v>0.43243243243243246</v>
-      </c>
-      <c r="F67" t="n" s="113">
-        <v>0.0</v>
-      </c>
-      <c r="G67" t="n" s="114">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="s" s="104">
-        <v>33</v>
-      </c>
-      <c r="B68" t="n" s="109">
-        <v>0.05405405405405406</v>
-      </c>
-      <c r="C68" t="n" s="110">
-        <v>0.10810810810810811</v>
-      </c>
-      <c r="D68" t="n" s="111">
-        <v>0.40540540540540543</v>
-      </c>
-      <c r="E68" t="n" s="112">
-        <v>0.3783783783783784</v>
-      </c>
-      <c r="F68" t="n" s="113">
-        <v>0.05405405405405406</v>
-      </c>
-      <c r="G68" t="n" s="114">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="s" s="104">
-        <v>34</v>
-      </c>
-      <c r="B69" t="n" s="109">
-        <v>0.1891891891891892</v>
-      </c>
-      <c r="C69" t="n" s="110">
-        <v>0.2972972972972973</v>
-      </c>
-      <c r="D69" t="n" s="111">
-        <v>0.2702702702702703</v>
-      </c>
-      <c r="E69" t="n" s="112">
-        <v>0.1891891891891892</v>
-      </c>
-      <c r="F69" t="n" s="113">
-        <v>0.05405405405405406</v>
-      </c>
-      <c r="G69" t="n" s="114">
         <v>0.0</v>
       </c>
     </row>
@@ -3972,7 +3648,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="116">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2">
@@ -4027,7 +3703,7 @@
         <v>0.7749306527486978</v>
       </c>
       <c r="C6" t="n" s="147">
-        <v>0.753492765036077</v>
+        <v>0.7534927650360769</v>
       </c>
       <c r="D6" t="n" s="148">
         <v>0.46258771056122816</v>
@@ -4036,7 +3712,7 @@
         <v>3.44307504425934</v>
       </c>
       <c r="F6" t="n" s="150">
-        <v>0.06241520022580371</v>
+        <v>0.06241520022580374</v>
       </c>
       <c r="G6" t="n" s="151">
         <v>2.641891891891892</v>
@@ -4095,28 +3771,28 @@
         <v>18</v>
       </c>
       <c r="B11" t="n" s="172">
-        <v>0.7064672160515943</v>
+        <v>0.799399815327793</v>
       </c>
       <c r="C11" t="n" s="173">
-        <v>0.7083161050220981</v>
+        <v>0.8005709227193908</v>
       </c>
       <c r="D11" t="n" s="174">
-        <v>0.6379488179754611</v>
+        <v>0.7300271806606076</v>
       </c>
       <c r="E11" t="n" s="175">
-        <v>0.4473478047964264</v>
+        <v>0.5723031460402122</v>
       </c>
       <c r="F11" t="n" s="176">
-        <v>2.4283689199767444</v>
+        <v>4.014313928720319</v>
       </c>
       <c r="G11" t="n" s="177">
-        <v>0.08398453730303974</v>
+        <v>0.05629644951598409</v>
       </c>
       <c r="H11" t="n" s="178">
-        <v>0.013970767211493913</v>
+        <v>0.0014212698442752994</v>
       </c>
       <c r="I11" t="n" s="179">
-        <v>0.5007178648782156</v>
+        <v>0.5871023693309866</v>
       </c>
     </row>
     <row r="12">
@@ -4124,28 +3800,28 @@
         <v>19</v>
       </c>
       <c r="B12" t="n" s="172">
-        <v>0.6420824295010845</v>
+        <v>0.7064672160515943</v>
       </c>
       <c r="C12" t="n" s="173">
-        <v>0.6493388019371542</v>
+        <v>0.7083161050220981</v>
       </c>
       <c r="D12" t="n" s="174">
-        <v>0.5892086609741058</v>
+        <v>0.6379488179754611</v>
       </c>
       <c r="E12" t="n" s="175">
-        <v>0.3816671098998346</v>
+        <v>0.4473478047964264</v>
       </c>
       <c r="F12" t="n" s="176">
-        <v>1.8517554993945444</v>
+        <v>2.4283689199767444</v>
       </c>
       <c r="G12" t="n" s="177">
-        <v>0.10364615594767519</v>
+        <v>0.08398453730303974</v>
       </c>
       <c r="H12" t="n" s="178">
-        <v>0.03273691054158326</v>
+        <v>0.013970767211493913</v>
       </c>
       <c r="I12" t="n" s="179">
-        <v>0.31187631086115036</v>
+        <v>0.5007178648782156</v>
       </c>
     </row>
     <row r="13">
@@ -4153,28 +3829,28 @@
         <v>20</v>
       </c>
       <c r="B13" t="n" s="172">
-        <v>0.799399815327793</v>
+        <v>0.6420824295010845</v>
       </c>
       <c r="C13" t="n" s="173">
-        <v>0.8005709227193908</v>
+        <v>0.6493388019371542</v>
       </c>
       <c r="D13" t="n" s="174">
-        <v>0.7300271806606076</v>
+        <v>0.5892086609741058</v>
       </c>
       <c r="E13" t="n" s="175">
-        <v>0.5723031460402122</v>
+        <v>0.3816671098998346</v>
       </c>
       <c r="F13" t="n" s="176">
-        <v>4.014313928720319</v>
+        <v>1.8517554993945444</v>
       </c>
       <c r="G13" t="n" s="177">
-        <v>0.05629644951598409</v>
+        <v>0.10364615594767519</v>
       </c>
       <c r="H13" t="n" s="178">
-        <v>0.0014212698442752994</v>
+        <v>0.03273691054158325</v>
       </c>
       <c r="I13" t="n" s="179">
-        <v>0.5871023693309866</v>
+        <v>0.31187631086115036</v>
       </c>
     </row>
     <row r="14">
@@ -4197,7 +3873,7 @@
         <v>2.4449700441587225</v>
       </c>
       <c r="G14" t="n" s="177">
-        <v>0.08640901955313676</v>
+        <v>0.0864090195531367</v>
       </c>
       <c r="H14" t="n" s="178">
         <v>0.03339186594064903</v>
@@ -4218,25 +3894,25 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="183">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18">
       <c r="A18"/>
       <c r="B18" t="s" s="197">
+        <v>32</v>
+      </c>
+      <c r="C18" t="s" s="197">
+        <v>33</v>
+      </c>
+      <c r="D18" t="s" s="197">
+        <v>34</v>
+      </c>
+      <c r="E18" t="s" s="197">
+        <v>35</v>
+      </c>
+      <c r="F18" t="s" s="197">
         <v>36</v>
-      </c>
-      <c r="C18" t="s" s="197">
-        <v>37</v>
-      </c>
-      <c r="D18" t="s" s="197">
-        <v>38</v>
-      </c>
-      <c r="E18" t="s" s="197">
-        <v>39</v>
-      </c>
-      <c r="F18" t="s" s="197">
-        <v>40</v>
       </c>
       <c r="G18" t="s" s="197">
         <v>9</v>
@@ -4253,22 +3929,22 @@
         <v>37.0</v>
       </c>
       <c r="C19" t="n" s="199">
-        <v>0.7944561826070045</v>
+        <v>0.6720900544504343</v>
       </c>
       <c r="D19" t="n" s="200">
-        <v>0.7874131674341339</v>
+        <v>0.6661160548476606</v>
       </c>
       <c r="E19" t="n" s="201">
-        <v>0.7088506545902982</v>
+        <v>0.4928017998194684</v>
       </c>
       <c r="F19" t="n" s="202">
-        <v>0.5922818331186942</v>
+        <v>0.4134924392724438</v>
       </c>
       <c r="G19" t="n" s="203">
-        <v>2.864864864864865</v>
+        <v>3.054054054054054</v>
       </c>
       <c r="H19" t="n" s="204">
-        <v>1.3367074424820065</v>
+        <v>1.2898308663013394</v>
       </c>
     </row>
     <row r="20">
@@ -4279,22 +3955,22 @@
         <v>37.0</v>
       </c>
       <c r="C20" t="n" s="199">
-        <v>0.8499390448489692</v>
+        <v>0.7944561826070045</v>
       </c>
       <c r="D20" t="n" s="200">
-        <v>0.8511709753383713</v>
+        <v>0.7874131674341339</v>
       </c>
       <c r="E20" t="n" s="201">
-        <v>0.799358382302505</v>
+        <v>0.7088506545902982</v>
       </c>
       <c r="F20" t="n" s="202">
-        <v>0.7120165309373724</v>
+        <v>0.5922818331186942</v>
       </c>
       <c r="G20" t="n" s="203">
-        <v>2.4054054054054053</v>
+        <v>2.864864864864865</v>
       </c>
       <c r="H20" t="n" s="204">
-        <v>1.2124231810593074</v>
+        <v>1.3367074424820065</v>
       </c>
     </row>
     <row r="21">
@@ -4305,22 +3981,22 @@
         <v>37.0</v>
       </c>
       <c r="C21" t="n" s="199">
-        <v>0.6720900544504343</v>
+        <v>0.8499390448489692</v>
       </c>
       <c r="D21" t="n" s="200">
-        <v>0.6661160548476606</v>
+        <v>0.8511709753383713</v>
       </c>
       <c r="E21" t="n" s="201">
-        <v>0.4928017998194684</v>
+        <v>0.799358382302505</v>
       </c>
       <c r="F21" t="n" s="202">
-        <v>0.4134924392724438</v>
+        <v>0.7120165309373724</v>
       </c>
       <c r="G21" t="n" s="203">
-        <v>3.054054054054054</v>
+        <v>2.4054054054054053</v>
       </c>
       <c r="H21" t="n" s="204">
-        <v>1.2898308663013394</v>
+        <v>1.2124231810593074</v>
       </c>
     </row>
     <row r="22">
@@ -4337,7 +4013,7 @@
         <v>0.7857775205869625</v>
       </c>
       <c r="E22" t="n" s="201">
-        <v>0.681646237416691</v>
+        <v>0.6816462374166908</v>
       </c>
       <c r="F22" t="n" s="202">
         <v>0.6003630122163057</v>
@@ -4361,28 +4037,28 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="208">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26">
       <c r="A26"/>
       <c r="B26" t="s" s="222">
+        <v>38</v>
+      </c>
+      <c r="C26" t="s" s="222">
+        <v>39</v>
+      </c>
+      <c r="D26" t="s" s="222">
+        <v>40</v>
+      </c>
+      <c r="E26" t="s" s="222">
+        <v>41</v>
+      </c>
+      <c r="F26" t="s" s="222">
         <v>42</v>
       </c>
-      <c r="C26" t="s" s="222">
+      <c r="G26" t="s" s="222">
         <v>43</v>
-      </c>
-      <c r="D26" t="s" s="222">
-        <v>44</v>
-      </c>
-      <c r="E26" t="s" s="222">
-        <v>45</v>
-      </c>
-      <c r="F26" t="s" s="222">
-        <v>46</v>
-      </c>
-      <c r="G26" t="s" s="222">
-        <v>47</v>
       </c>
     </row>
     <row r="27">
@@ -4390,19 +4066,19 @@
         <v>18</v>
       </c>
       <c r="B27" t="n" s="223">
-        <v>0.2702702702702703</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="C27" t="n" s="224">
+        <v>0.4594594594594595</v>
+      </c>
+      <c r="D27" t="n" s="225">
+        <v>0.1891891891891892</v>
+      </c>
+      <c r="E27" t="n" s="226">
         <v>0.08108108108108109</v>
       </c>
-      <c r="D27" t="n" s="225">
-        <v>0.21621621621621623</v>
-      </c>
-      <c r="E27" t="n" s="226">
-        <v>0.3783783783783784</v>
-      </c>
       <c r="F27" t="n" s="227">
-        <v>0.05405405405405406</v>
+        <v>0.24324324324324326</v>
       </c>
       <c r="G27" t="n" s="228">
         <v>0.0</v>
@@ -4413,19 +4089,19 @@
         <v>19</v>
       </c>
       <c r="B28" t="n" s="223">
-        <v>0.35135135135135137</v>
+        <v>0.2702702702702703</v>
       </c>
       <c r="C28" t="n" s="224">
-        <v>0.13513513513513514</v>
+        <v>0.08108108108108109</v>
       </c>
       <c r="D28" t="n" s="225">
-        <v>0.2702702702702703</v>
+        <v>0.21621621621621623</v>
       </c>
       <c r="E28" t="n" s="226">
-        <v>0.24324324324324326</v>
+        <v>0.3783783783783784</v>
       </c>
       <c r="F28" t="n" s="227">
-        <v>0.0</v>
+        <v>0.05405405405405406</v>
       </c>
       <c r="G28" t="n" s="228">
         <v>0.0</v>
@@ -4436,19 +4112,19 @@
         <v>20</v>
       </c>
       <c r="B29" t="n" s="223">
-        <v>0.02702702702702703</v>
+        <v>0.35135135135135137</v>
       </c>
       <c r="C29" t="n" s="224">
-        <v>0.4594594594594595</v>
+        <v>0.13513513513513514</v>
       </c>
       <c r="D29" t="n" s="225">
-        <v>0.1891891891891892</v>
+        <v>0.2702702702702703</v>
       </c>
       <c r="E29" t="n" s="226">
-        <v>0.08108108108108109</v>
+        <v>0.24324324324324326</v>
       </c>
       <c r="F29" t="n" s="227">
-        <v>0.24324324324324326</v>
+        <v>0.0</v>
       </c>
       <c r="G29" t="n" s="228">
         <v>0.0</v>
@@ -4504,7 +4180,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="230">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2">
@@ -4559,7 +4235,7 @@
         <v>0.8280369881851464</v>
       </c>
       <c r="C6" t="n" s="261">
-        <v>0.8295297735166819</v>
+        <v>0.8295297735166818</v>
       </c>
       <c r="D6" t="n" s="262">
         <v>0.44522544547913595</v>
@@ -4627,28 +4303,28 @@
         <v>22</v>
       </c>
       <c r="B11" t="n" s="286">
-        <v>0.7848255459845124</v>
+        <v>0.8146562074761867</v>
       </c>
       <c r="C11" t="n" s="287">
-        <v>0.7951533016207329</v>
+        <v>0.8256814814521735</v>
       </c>
       <c r="D11" t="n" s="288">
-        <v>0.78479036670627</v>
+        <v>0.80667715334291</v>
       </c>
       <c r="E11" t="n" s="289">
-        <v>0.4370446704648311</v>
+        <v>0.4864750449013857</v>
       </c>
       <c r="F11" t="n" s="290">
-        <v>3.881699377690393</v>
+        <v>4.736625163697896</v>
       </c>
       <c r="G11" t="n" s="291">
-        <v>0.05362586305751046</v>
+        <v>0.046410592031099325</v>
       </c>
       <c r="H11" t="n" s="292">
-        <v>0.011958041524402899</v>
+        <v>0.006429001492755775</v>
       </c>
       <c r="I11" t="n" s="293">
-        <v>0.4119061308015</v>
+        <v>0.4808726667759694</v>
       </c>
     </row>
     <row r="12">
@@ -4671,13 +4347,13 @@
         <v>3.937638469700098</v>
       </c>
       <c r="G12" t="n" s="291">
-        <v>0.05266372669772066</v>
+        <v>0.05266372669772064</v>
       </c>
       <c r="H12" t="n" s="292">
-        <v>0.017800160357532797</v>
+        <v>0.017800160357532794</v>
       </c>
       <c r="I12" t="n" s="293">
-        <v>0.43008108346590435</v>
+        <v>0.4300810834659044</v>
       </c>
     </row>
     <row r="13">
@@ -4685,28 +4361,28 @@
         <v>24</v>
       </c>
       <c r="B13" t="n" s="286">
-        <v>0.7810858561741953</v>
+        <v>0.7864297906746922</v>
       </c>
       <c r="C13" t="n" s="287">
-        <v>0.7959072585344948</v>
+        <v>0.7913302289554067</v>
       </c>
       <c r="D13" t="n" s="288">
-        <v>0.7812134880890342</v>
+        <v>0.7712473456579556</v>
       </c>
       <c r="E13" t="n" s="289">
-        <v>0.43818541118155874</v>
+        <v>0.43131806307684</v>
       </c>
       <c r="F13" t="n" s="290">
-        <v>3.899733291930987</v>
+        <v>3.7922609728952894</v>
       </c>
       <c r="G13" t="n" s="291">
-        <v>0.05454962218897903</v>
+        <v>0.05088243493378138</v>
       </c>
       <c r="H13" t="n" s="292">
-        <v>0.010865051730052602</v>
+        <v>0.01567283699491497</v>
       </c>
       <c r="I13" t="n" s="293">
-        <v>0.46396484114267156</v>
+        <v>0.44578988847826717</v>
       </c>
     </row>
     <row r="14">
@@ -4714,28 +4390,28 @@
         <v>25</v>
       </c>
       <c r="B14" t="n" s="286">
-        <v>0.793542395104895</v>
+        <v>0.7848255459845124</v>
       </c>
       <c r="C14" t="n" s="287">
-        <v>0.795627289928297</v>
+        <v>0.7951533016207329</v>
       </c>
       <c r="D14" t="n" s="288">
-        <v>0.7925566764795808</v>
+        <v>0.7847903667062701</v>
       </c>
       <c r="E14" t="n" s="289">
-        <v>0.43776137534907295</v>
+        <v>0.4370446704648311</v>
       </c>
       <c r="F14" t="n" s="290">
-        <v>3.8930211849182603</v>
+        <v>3.881699377690393</v>
       </c>
       <c r="G14" t="n" s="291">
-        <v>0.05348363807471182</v>
+        <v>0.05362586305751046</v>
       </c>
       <c r="H14" t="n" s="292">
-        <v>0.015606359503521535</v>
+        <v>0.011958041524402897</v>
       </c>
       <c r="I14" t="n" s="293">
-        <v>0.4417366434206338</v>
+        <v>0.41190613080150007</v>
       </c>
     </row>
     <row r="15">
@@ -4743,28 +4419,28 @@
         <v>26</v>
       </c>
       <c r="B15" t="n" s="286">
-        <v>0.7864297906746922</v>
+        <v>0.7810858561741953</v>
       </c>
       <c r="C15" t="n" s="287">
-        <v>0.7913302289554067</v>
+        <v>0.7959072585344948</v>
       </c>
       <c r="D15" t="n" s="288">
-        <v>0.7712473456579556</v>
+        <v>0.7812134880890342</v>
       </c>
       <c r="E15" t="n" s="289">
-        <v>0.43131806307684</v>
+        <v>0.43818541118155874</v>
       </c>
       <c r="F15" t="n" s="290">
-        <v>3.7922609728952894</v>
+        <v>3.899733291930987</v>
       </c>
       <c r="G15" t="n" s="291">
-        <v>0.05088243493378138</v>
+        <v>0.054549622188979054</v>
       </c>
       <c r="H15" t="n" s="292">
-        <v>0.01567283699491497</v>
+        <v>0.0108650517300526</v>
       </c>
       <c r="I15" t="n" s="293">
-        <v>0.4457898884782672</v>
+        <v>0.46396484114267156</v>
       </c>
     </row>
     <row r="16">
@@ -4772,28 +4448,28 @@
         <v>27</v>
       </c>
       <c r="B16" t="n" s="286">
-        <v>0.8146562074761867</v>
+        <v>0.793542395104895</v>
       </c>
       <c r="C16" t="n" s="287">
-        <v>0.8256814814521735</v>
+        <v>0.795627289928297</v>
       </c>
       <c r="D16" t="n" s="288">
-        <v>0.8066771533429099</v>
+        <v>0.7925566764795807</v>
       </c>
       <c r="E16" t="n" s="289">
-        <v>0.4864750449013857</v>
+        <v>0.43776137534907295</v>
       </c>
       <c r="F16" t="n" s="290">
-        <v>4.736625163697896</v>
+        <v>3.8930211849182603</v>
       </c>
       <c r="G16" t="n" s="291">
-        <v>0.046410592031099325</v>
+        <v>0.05348363807471182</v>
       </c>
       <c r="H16" t="n" s="292">
-        <v>0.006429001492755776</v>
+        <v>0.015606359503521535</v>
       </c>
       <c r="I16" t="n" s="293">
-        <v>0.48087266677596946</v>
+        <v>0.4417366434206338</v>
       </c>
     </row>
     <row r="17">
@@ -4808,25 +4484,25 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="297">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20">
       <c r="A20"/>
       <c r="B20" t="s" s="311">
+        <v>32</v>
+      </c>
+      <c r="C20" t="s" s="311">
+        <v>33</v>
+      </c>
+      <c r="D20" t="s" s="311">
+        <v>34</v>
+      </c>
+      <c r="E20" t="s" s="311">
+        <v>35</v>
+      </c>
+      <c r="F20" t="s" s="311">
         <v>36</v>
-      </c>
-      <c r="C20" t="s" s="311">
-        <v>37</v>
-      </c>
-      <c r="D20" t="s" s="311">
-        <v>38</v>
-      </c>
-      <c r="E20" t="s" s="311">
-        <v>39</v>
-      </c>
-      <c r="F20" t="s" s="311">
-        <v>40</v>
       </c>
       <c r="G20" t="s" s="311">
         <v>9</v>
@@ -4843,22 +4519,22 @@
         <v>37.0</v>
       </c>
       <c r="C21" t="n" s="313">
-        <v>0.743494634657056</v>
+        <v>0.601974528558837</v>
       </c>
       <c r="D21" t="n" s="314">
-        <v>0.7518662557119912</v>
+        <v>0.6395151037141162</v>
       </c>
       <c r="E21" t="n" s="315">
-        <v>0.6960844248105313</v>
+        <v>0.5451463900420305</v>
       </c>
       <c r="F21" t="n" s="316">
-        <v>0.635812181771072</v>
+        <v>0.4675438725642201</v>
       </c>
       <c r="G21" t="n" s="317">
-        <v>2.3783783783783785</v>
+        <v>3.6216216216216215</v>
       </c>
       <c r="H21" t="n" s="318">
-        <v>0.9235003263956396</v>
+        <v>0.861244298524955</v>
       </c>
     </row>
     <row r="22">
@@ -4895,22 +4571,22 @@
         <v>37.0</v>
       </c>
       <c r="C23" t="n" s="313">
-        <v>0.7681013464579877</v>
+        <v>0.738863546672238</v>
       </c>
       <c r="D23" t="n" s="314">
-        <v>0.7492734464299223</v>
+        <v>0.7648823605749261</v>
       </c>
       <c r="E23" t="n" s="315">
-        <v>0.6973292150597142</v>
+        <v>0.718499699010234</v>
       </c>
       <c r="F23" t="n" s="316">
-        <v>0.632847175386687</v>
+        <v>0.6127317695516431</v>
       </c>
       <c r="G23" t="n" s="317">
-        <v>2.891891891891892</v>
+        <v>3.081081081081081</v>
       </c>
       <c r="H23" t="n" s="318">
-        <v>1.1734039700277465</v>
+        <v>1.037582081850191</v>
       </c>
     </row>
     <row r="24">
@@ -4921,22 +4597,22 @@
         <v>37.0</v>
       </c>
       <c r="C24" t="n" s="313">
-        <v>0.7985247491576892</v>
+        <v>0.743494634657056</v>
       </c>
       <c r="D24" t="n" s="314">
-        <v>0.750237244799067</v>
+        <v>0.7518662557119912</v>
       </c>
       <c r="E24" t="n" s="315">
-        <v>0.6821953533734371</v>
+        <v>0.6960844248105317</v>
       </c>
       <c r="F24" t="n" s="316">
-        <v>0.627555577275394</v>
+        <v>0.635812181771072</v>
       </c>
       <c r="G24" t="n" s="317">
-        <v>2.5135135135135136</v>
+        <v>2.3783783783783785</v>
       </c>
       <c r="H24" t="n" s="318">
-        <v>1.5022505639062869</v>
+        <v>0.9235003263956396</v>
       </c>
     </row>
     <row r="25">
@@ -4947,22 +4623,22 @@
         <v>37.0</v>
       </c>
       <c r="C25" t="n" s="313">
-        <v>0.738863546672238</v>
+        <v>0.7681013464579877</v>
       </c>
       <c r="D25" t="n" s="314">
-        <v>0.7648823605749261</v>
+        <v>0.7492734464299223</v>
       </c>
       <c r="E25" t="n" s="315">
-        <v>0.718499699010234</v>
+        <v>0.6973292150597141</v>
       </c>
       <c r="F25" t="n" s="316">
-        <v>0.6127317695516431</v>
+        <v>0.632847175386687</v>
       </c>
       <c r="G25" t="n" s="317">
-        <v>3.081081081081081</v>
+        <v>2.891891891891892</v>
       </c>
       <c r="H25" t="n" s="318">
-        <v>1.037582081850191</v>
+        <v>1.1734039700277465</v>
       </c>
     </row>
     <row r="26">
@@ -4973,22 +4649,22 @@
         <v>37.0</v>
       </c>
       <c r="C26" t="n" s="313">
-        <v>0.601974528558837</v>
+        <v>0.7985247491576892</v>
       </c>
       <c r="D26" t="n" s="314">
-        <v>0.6395151037141162</v>
+        <v>0.750237244799067</v>
       </c>
       <c r="E26" t="n" s="315">
-        <v>0.5451463900420306</v>
+        <v>0.6821953533734371</v>
       </c>
       <c r="F26" t="n" s="316">
-        <v>0.4675438725642201</v>
+        <v>0.627555577275394</v>
       </c>
       <c r="G26" t="n" s="317">
-        <v>3.6216216216216215</v>
+        <v>2.5135135135135136</v>
       </c>
       <c r="H26" t="n" s="318">
-        <v>0.861244298524955</v>
+        <v>1.5022505639062869</v>
       </c>
     </row>
     <row r="27">
@@ -5003,28 +4679,28 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="322">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30">
       <c r="A30"/>
       <c r="B30" t="s" s="336">
+        <v>38</v>
+      </c>
+      <c r="C30" t="s" s="336">
+        <v>39</v>
+      </c>
+      <c r="D30" t="s" s="336">
+        <v>40</v>
+      </c>
+      <c r="E30" t="s" s="336">
+        <v>41</v>
+      </c>
+      <c r="F30" t="s" s="336">
         <v>42</v>
       </c>
-      <c r="C30" t="s" s="336">
+      <c r="G30" t="s" s="336">
         <v>43</v>
-      </c>
-      <c r="D30" t="s" s="336">
-        <v>44</v>
-      </c>
-      <c r="E30" t="s" s="336">
-        <v>45</v>
-      </c>
-      <c r="F30" t="s" s="336">
-        <v>46</v>
-      </c>
-      <c r="G30" t="s" s="336">
-        <v>47</v>
       </c>
     </row>
     <row r="31">
@@ -5032,19 +4708,19 @@
         <v>22</v>
       </c>
       <c r="B31" t="n" s="337">
-        <v>0.13513513513513514</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="C31" t="n" s="338">
-        <v>0.4864864864864865</v>
+        <v>0.05405405405405406</v>
       </c>
       <c r="D31" t="n" s="339">
-        <v>0.2702702702702703</v>
+        <v>0.2972972972972973</v>
       </c>
       <c r="E31" t="n" s="340">
-        <v>0.08108108108108109</v>
+        <v>0.5135135135135135</v>
       </c>
       <c r="F31" t="n" s="341">
-        <v>0.02702702702702703</v>
+        <v>0.10810810810810811</v>
       </c>
       <c r="G31" t="n" s="342">
         <v>0.0</v>
@@ -5078,16 +4754,16 @@
         <v>24</v>
       </c>
       <c r="B33" t="n" s="337">
-        <v>0.08108108108108109</v>
+        <v>0.05405405405405406</v>
       </c>
       <c r="C33" t="n" s="338">
-        <v>0.3783783783783784</v>
+        <v>0.21621621621621623</v>
       </c>
       <c r="D33" t="n" s="339">
-        <v>0.21621621621621623</v>
+        <v>0.43243243243243246</v>
       </c>
       <c r="E33" t="n" s="340">
-        <v>0.21621621621621623</v>
+        <v>0.1891891891891892</v>
       </c>
       <c r="F33" t="n" s="341">
         <v>0.10810810810810811</v>
@@ -5101,19 +4777,19 @@
         <v>25</v>
       </c>
       <c r="B34" t="n" s="337">
-        <v>0.40540540540540543</v>
+        <v>0.13513513513513514</v>
       </c>
       <c r="C34" t="n" s="338">
-        <v>0.10810810810810811</v>
+        <v>0.4864864864864865</v>
       </c>
       <c r="D34" t="n" s="339">
-        <v>0.1891891891891892</v>
+        <v>0.2702702702702703</v>
       </c>
       <c r="E34" t="n" s="340">
-        <v>0.16216216216216217</v>
+        <v>0.08108108108108109</v>
       </c>
       <c r="F34" t="n" s="341">
-        <v>0.13513513513513514</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="G34" t="n" s="342">
         <v>0.0</v>
@@ -5124,16 +4800,16 @@
         <v>26</v>
       </c>
       <c r="B35" t="n" s="337">
-        <v>0.05405405405405406</v>
+        <v>0.08108108108108109</v>
       </c>
       <c r="C35" t="n" s="338">
+        <v>0.3783783783783784</v>
+      </c>
+      <c r="D35" t="n" s="339">
         <v>0.21621621621621623</v>
       </c>
-      <c r="D35" t="n" s="339">
-        <v>0.43243243243243246</v>
-      </c>
       <c r="E35" t="n" s="340">
-        <v>0.1891891891891892</v>
+        <v>0.21621621621621623</v>
       </c>
       <c r="F35" t="n" s="341">
         <v>0.10810810810810811</v>
@@ -5147,19 +4823,19 @@
         <v>27</v>
       </c>
       <c r="B36" t="n" s="337">
-        <v>0.02702702702702703</v>
+        <v>0.40540540540540543</v>
       </c>
       <c r="C36" t="n" s="338">
-        <v>0.05405405405405406</v>
+        <v>0.10810810810810811</v>
       </c>
       <c r="D36" t="n" s="339">
-        <v>0.2972972972972973</v>
+        <v>0.1891891891891892</v>
       </c>
       <c r="E36" t="n" s="340">
-        <v>0.5135135135135135</v>
+        <v>0.16216216216216217</v>
       </c>
       <c r="F36" t="n" s="341">
-        <v>0.10810810810810811</v>
+        <v>0.13513513513513514</v>
       </c>
       <c r="G36" t="n" s="342">
         <v>0.0</v>
@@ -5192,7 +4868,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="344">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2">
@@ -5241,31 +4917,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="373">
-        <v>0.6730525706429321</v>
+        <v>0.5955223880597015</v>
       </c>
       <c r="B6" t="n" s="374">
-        <v>0.6784809489486164</v>
+        <v>0.5973668434587349</v>
       </c>
       <c r="C6" t="n" s="375">
-        <v>0.7152505234251562</v>
+        <v>0.5177227141689367</v>
       </c>
       <c r="D6" t="n" s="376">
-        <v>0.23163348302502323</v>
+        <v>0.33090233785990203</v>
       </c>
       <c r="E6" t="n" s="377">
-        <v>2.1102356041732198</v>
+        <v>1.483650399262417</v>
       </c>
       <c r="F6" t="n" s="378">
-        <v>0.08137845321937656</v>
+        <v>0.1124208655289313</v>
       </c>
       <c r="G6" t="n" s="379">
-        <v>3.2857142857142856</v>
+        <v>3.144144144144144</v>
       </c>
       <c r="H6" t="n" s="380">
-        <v>0.5313312762957476</v>
+        <v>0.7475909480182944</v>
       </c>
       <c r="I6" t="n" s="381">
-        <v>0.21709763344942068</v>
+        <v>0.284355061157679</v>
       </c>
     </row>
     <row r="7">
@@ -5315,28 +4991,26 @@
         <v>28</v>
       </c>
       <c r="B11" t="n" s="400">
-        <v>0.5762229102167182</v>
+        <v>0.639080459770115</v>
       </c>
       <c r="C11" t="n" s="401">
-        <v>0.5743765918517248</v>
+        <v>0.6496702376332204</v>
       </c>
       <c r="D11" t="n" s="402">
-        <v>0.6035762291287254</v>
+        <v>0.48111969071504146</v>
       </c>
       <c r="E11" t="n" s="403">
-        <v>0.18361735969942974</v>
+        <v>0.48111969071504146</v>
       </c>
       <c r="F11" t="n" s="404">
-        <v>1.3494948371157922</v>
+        <v>1.8544534533524581</v>
       </c>
       <c r="G11" t="n" s="405">
-        <v>0.10595989998715508</v>
-      </c>
-      <c r="H11" t="n" s="406">
-        <v>0.021208424484880226</v>
-      </c>
+        <v>0.11500995036767345</v>
+      </c>
+      <c r="H11" s="406"/>
       <c r="I11" t="n" s="407">
-        <v>0.17725308037032456</v>
+        <v>0.4811196907150415</v>
       </c>
     </row>
     <row r="12">
@@ -5344,28 +5018,26 @@
         <v>29</v>
       </c>
       <c r="B12" t="n" s="400">
-        <v>0.6217226277372262</v>
+        <v>0.44258872651356995</v>
       </c>
       <c r="C12" t="n" s="401">
-        <v>0.6257550775992459</v>
+        <v>0.44279821017930976</v>
       </c>
       <c r="D12" t="n" s="402">
-        <v>0.6681064737445906</v>
+        <v>0.28435506115767906</v>
       </c>
       <c r="E12" t="n" s="403">
-        <v>0.21794013431869536</v>
+        <v>0.28435506115767906</v>
       </c>
       <c r="F12" t="n" s="404">
-        <v>1.6720469407709586</v>
+        <v>0.7946819595138125</v>
       </c>
       <c r="G12" t="n" s="405">
-        <v>0.0950754162277779</v>
-      </c>
-      <c r="H12" t="n" s="406">
-        <v>0.033337617767009935</v>
-      </c>
+        <v>0.18315456589532647</v>
+      </c>
+      <c r="H12" s="406"/>
       <c r="I12" t="n" s="407">
-        <v>0.21709763344942068</v>
+        <v>0.284355061157679</v>
       </c>
     </row>
     <row r="13">
@@ -5373,561 +5045,247 @@
         <v>30</v>
       </c>
       <c r="B13" t="n" s="400">
-        <v>0.6299640431482222</v>
+        <v>0.36063708759954505</v>
       </c>
       <c r="C13" t="n" s="401">
-        <v>0.6278096918770093</v>
+        <v>0.37031663654428826</v>
       </c>
       <c r="D13" t="n" s="402">
-        <v>0.649437679495785</v>
+        <v>0.22723226170698518</v>
       </c>
       <c r="E13" t="n" s="403">
-        <v>0.21944086887332018</v>
+        <v>0.2272322617069853</v>
       </c>
       <c r="F13" t="n" s="404">
-        <v>1.6867975285093908</v>
+        <v>0.5880997625727081</v>
       </c>
       <c r="G13" t="n" s="405">
-        <v>0.09324695282485121</v>
-      </c>
-      <c r="H13" t="n" s="406">
-        <v>0.020909497679381935</v>
-      </c>
+        <v>0.2031707236029464</v>
+      </c>
+      <c r="H13" s="406"/>
       <c r="I13" t="n" s="407">
-        <v>0.20919942885894433</v>
+        <v>0.22723226170698538</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s" s="395">
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="411">
         <v>31</v>
       </c>
-      <c r="B14" t="n" s="400">
-        <v>0.6846753246753247</v>
-      </c>
-      <c r="C14" t="n" s="401">
-        <v>0.700286670365665</v>
-      </c>
-      <c r="D14" t="n" s="402">
-        <v>0.7093823424721872</v>
-      </c>
-      <c r="E14" t="n" s="403">
-        <v>0.28027536142696025</v>
-      </c>
-      <c r="F14" t="n" s="404">
-        <v>2.3365216062296894</v>
-      </c>
-      <c r="G14" t="n" s="405">
-        <v>0.08089785799391618</v>
-      </c>
-      <c r="H14" t="n" s="406">
-        <v>0.023224561332209674</v>
-      </c>
-      <c r="I14" t="n" s="407">
-        <v>0.284355061157679</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s" s="395">
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="425">
         <v>32</v>
       </c>
-      <c r="B15" t="n" s="400">
-        <v>0.6587165775401068</v>
-      </c>
-      <c r="C15" t="n" s="401">
-        <v>0.6609481464604899</v>
-      </c>
-      <c r="D15" t="n" s="402">
-        <v>0.6997216744242052</v>
-      </c>
-      <c r="E15" t="n" s="403">
-        <v>0.24522618450176453</v>
-      </c>
-      <c r="F15" t="n" s="404">
-        <v>1.9494013660759102</v>
-      </c>
-      <c r="G15" t="n" s="405">
-        <v>0.08545180416623983</v>
-      </c>
-      <c r="H15" t="n" s="406">
-        <v>0.03243927019452182</v>
-      </c>
-      <c r="I15" t="n" s="407">
-        <v>0.22723226170698538</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="395">
+      <c r="C17" t="s" s="425">
         <v>33</v>
       </c>
-      <c r="B16" t="n" s="400">
-        <v>0.6324070115433945</v>
-      </c>
-      <c r="C16" t="n" s="401">
-        <v>0.6490077507141976</v>
-      </c>
-      <c r="D16" t="n" s="402">
-        <v>0.6569722379180489</v>
-      </c>
-      <c r="E16" t="n" s="403">
-        <v>0.2355778149530935</v>
-      </c>
-      <c r="F16" t="n" s="404">
-        <v>1.8490657615226431</v>
-      </c>
-      <c r="G16" t="n" s="405">
-        <v>0.09343434329904712</v>
-      </c>
-      <c r="H16" t="n" s="406">
-        <v>0.024737117624395726</v>
-      </c>
-      <c r="I16" t="n" s="407">
-        <v>0.20919942885894433</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="395">
+      <c r="D17" t="s" s="425">
         <v>34</v>
       </c>
-      <c r="B17" t="n" s="400">
-        <v>0.651935385553185</v>
-      </c>
-      <c r="C17" t="n" s="401">
-        <v>0.6537467545860779</v>
-      </c>
-      <c r="D17" t="n" s="402">
-        <v>0.6695093103586871</v>
-      </c>
-      <c r="E17" t="n" s="403">
-        <v>0.23935665740189893</v>
-      </c>
-      <c r="F17" t="n" s="404">
-        <v>1.8880595727112053</v>
-      </c>
-      <c r="G17" t="n" s="405">
-        <v>0.08705329201618774</v>
-      </c>
-      <c r="H17" t="n" s="406">
-        <v>0.030635538715722468</v>
-      </c>
-      <c r="I17" t="n" s="407">
-        <v>0.23071089025874056</v>
+      <c r="E17" t="s" s="425">
+        <v>35</v>
+      </c>
+      <c r="F17" t="s" s="425">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="425">
+        <v>9</v>
+      </c>
+      <c r="H17" t="s" s="425">
+        <v>10</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s">
+      <c r="A18" t="s" s="421">
+        <v>28</v>
+      </c>
+      <c r="B18" t="n" s="426">
+        <v>37.0</v>
+      </c>
+      <c r="C18" t="n" s="427">
+        <v>0.6375508737654016</v>
+      </c>
+      <c r="D18" t="n" s="428">
+        <v>0.6769905793940012</v>
+      </c>
+      <c r="E18" t="n" s="429">
+        <v>0.37538657737259434</v>
+      </c>
+      <c r="F18" t="n" s="430">
+        <v>0.2929659983729159</v>
+      </c>
+      <c r="G18" t="n" s="431">
+        <v>3.5405405405405403</v>
+      </c>
+      <c r="H18" t="n" s="432">
+        <v>0.9004503377814963</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="421">
+        <v>29</v>
+      </c>
+      <c r="B19" t="n" s="426">
+        <v>37.0</v>
+      </c>
+      <c r="C19" t="n" s="427">
+        <v>0.8098587865560527</v>
+      </c>
+      <c r="D19" t="n" s="428">
+        <v>0.7651150288077724</v>
+      </c>
+      <c r="E19" t="n" s="429">
+        <v>0.5905280989615689</v>
+      </c>
+      <c r="F19" t="n" s="430">
+        <v>0.44469243078537074</v>
+      </c>
+      <c r="G19" t="n" s="431">
+        <v>2.6216216216216215</v>
+      </c>
+      <c r="H19" t="n" s="432">
+        <v>1.1631220283585264</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="421">
+        <v>30</v>
+      </c>
+      <c r="B20" t="n" s="426">
+        <v>37.0</v>
+      </c>
+      <c r="C20" t="n" s="427">
+        <v>0.7794138923051497</v>
+      </c>
+      <c r="D20" t="n" s="428">
+        <v>0.7906984645192101</v>
+      </c>
+      <c r="E20" t="n" s="429">
+        <v>0.6406537415668172</v>
+      </c>
+      <c r="F20" t="n" s="430">
+        <v>0.5020312279164411</v>
+      </c>
+      <c r="G20" t="n" s="431">
+        <v>3.27027027027027</v>
+      </c>
+      <c r="H20" t="n" s="432">
+        <v>0.9323997905240913</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="s">
+    <row r="22">
+      <c r="A22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="s" s="411">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21"/>
-      <c r="B21" t="s" s="425">
-        <v>36</v>
-      </c>
-      <c r="C21" t="s" s="425">
+    <row r="23">
+      <c r="A23" t="s" s="436">
         <v>37</v>
       </c>
-      <c r="D21" t="s" s="425">
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="450">
         <v>38</v>
       </c>
-      <c r="E21" t="s" s="425">
+      <c r="C24" t="s" s="450">
         <v>39</v>
       </c>
-      <c r="F21" t="s" s="425">
+      <c r="D24" t="s" s="450">
         <v>40</v>
       </c>
-      <c r="G21" t="s" s="425">
-        <v>9</v>
-      </c>
-      <c r="H21" t="s" s="425">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s" s="421">
+      <c r="E24" t="s" s="450">
+        <v>41</v>
+      </c>
+      <c r="F24" t="s" s="450">
+        <v>42</v>
+      </c>
+      <c r="G24" t="s" s="450">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="446">
         <v>28</v>
       </c>
-      <c r="B22" t="n" s="426">
-        <v>37.0</v>
-      </c>
-      <c r="C22" t="n" s="427">
-        <v>0.7381834762194552</v>
-      </c>
-      <c r="D22" t="n" s="428">
-        <v>0.7603901431169156</v>
-      </c>
-      <c r="E22" t="n" s="429">
-        <v>0.7517107274667296</v>
-      </c>
-      <c r="F22" t="n" s="430">
-        <v>0.5924316870865667</v>
-      </c>
-      <c r="G22" t="n" s="431">
-        <v>3.5405405405405403</v>
-      </c>
-      <c r="H22" t="n" s="432">
-        <v>0.9004503377814963</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="421">
+      <c r="B25" t="n" s="451">
+        <v>0.02702702702702703</v>
+      </c>
+      <c r="C25" t="n" s="452">
+        <v>0.08108108108108109</v>
+      </c>
+      <c r="D25" t="n" s="453">
+        <v>0.32432432432432434</v>
+      </c>
+      <c r="E25" t="n" s="454">
+        <v>0.4594594594594595</v>
+      </c>
+      <c r="F25" t="n" s="455">
+        <v>0.10810810810810811</v>
+      </c>
+      <c r="G25" t="n" s="456">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="446">
         <v>29</v>
       </c>
-      <c r="B23" t="n" s="426">
-        <v>37.0</v>
-      </c>
-      <c r="C23" t="n" s="427">
-        <v>0.6310648839850801</v>
-      </c>
-      <c r="D23" t="n" s="428">
-        <v>0.6345139014410857</v>
-      </c>
-      <c r="E23" t="n" s="429">
-        <v>0.5387043946854706</v>
-      </c>
-      <c r="F23" t="n" s="430">
-        <v>0.43664475953364484</v>
-      </c>
-      <c r="G23" t="n" s="431">
-        <v>3.2162162162162162</v>
-      </c>
-      <c r="H23" t="n" s="432">
-        <v>0.94678212720583</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="421">
+      <c r="B26" t="n" s="451">
+        <v>0.1891891891891892</v>
+      </c>
+      <c r="C26" t="n" s="452">
+        <v>0.2972972972972973</v>
+      </c>
+      <c r="D26" t="n" s="453">
+        <v>0.2702702702702703</v>
+      </c>
+      <c r="E26" t="n" s="454">
+        <v>0.1891891891891892</v>
+      </c>
+      <c r="F26" t="n" s="455">
+        <v>0.05405405405405406</v>
+      </c>
+      <c r="G26" t="n" s="456">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="446">
         <v>30</v>
       </c>
-      <c r="B24" t="n" s="426">
-        <v>37.0</v>
-      </c>
-      <c r="C24" t="n" s="427">
-        <v>0.582666280072425</v>
-      </c>
-      <c r="D24" t="n" s="428">
-        <v>0.6290100682695334</v>
-      </c>
-      <c r="E24" t="n" s="429">
-        <v>0.5746520373752328</v>
-      </c>
-      <c r="F24" t="n" s="430">
-        <v>0.43544719018648553</v>
-      </c>
-      <c r="G24" t="n" s="431">
-        <v>3.054054054054054</v>
-      </c>
-      <c r="H24" t="n" s="432">
-        <v>0.7049801394344362</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="421">
-        <v>31</v>
-      </c>
-      <c r="B25" t="n" s="426">
-        <v>37.0</v>
-      </c>
-      <c r="C25" t="n" s="427">
-        <v>0.39220730985186747</v>
-      </c>
-      <c r="D25" t="n" s="428">
-        <v>0.4059040585761853</v>
-      </c>
-      <c r="E25" t="n" s="429">
-        <v>0.25135427523988646</v>
-      </c>
-      <c r="F25" t="n" s="430">
-        <v>0.1891308196925866</v>
-      </c>
-      <c r="G25" t="n" s="431">
-        <v>4.162162162162162</v>
-      </c>
-      <c r="H25" t="n" s="432">
-        <v>0.7997747430618447</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s" s="421">
-        <v>32</v>
-      </c>
-      <c r="B26" t="n" s="426">
-        <v>37.0</v>
-      </c>
-      <c r="C26" t="n" s="427">
-        <v>0.513612262936516</v>
-      </c>
-      <c r="D26" t="n" s="428">
-        <v>0.5344443270747132</v>
-      </c>
-      <c r="E26" t="n" s="429">
-        <v>0.3948379247020721</v>
-      </c>
-      <c r="F26" t="n" s="430">
-        <v>0.30533730128369646</v>
-      </c>
-      <c r="G26" t="n" s="431">
-        <v>3.135135135135135</v>
-      </c>
-      <c r="H26" t="n" s="432">
-        <v>0.8870100263169446</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="421">
-        <v>33</v>
-      </c>
-      <c r="B27" t="n" s="426">
-        <v>37.0</v>
-      </c>
-      <c r="C27" t="n" s="427">
-        <v>0.6007491629426778</v>
-      </c>
-      <c r="D27" t="n" s="428">
-        <v>0.5698290100019648</v>
-      </c>
-      <c r="E27" t="n" s="429">
-        <v>0.48995327499443503</v>
-      </c>
-      <c r="F27" t="n" s="430">
-        <v>0.40111139894692305</v>
-      </c>
-      <c r="G27" t="n" s="431">
-        <v>3.27027027027027</v>
-      </c>
-      <c r="H27" t="n" s="432">
-        <v>0.9323997905240913</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="421">
-        <v>34</v>
-      </c>
-      <c r="B28" t="n" s="426">
-        <v>37.0</v>
-      </c>
-      <c r="C28" t="n" s="427">
-        <v>0.616424697010509</v>
-      </c>
-      <c r="D28" t="n" s="428">
-        <v>0.555970384333814</v>
-      </c>
-      <c r="E28" t="n" s="429">
-        <v>0.4578543499969498</v>
-      </c>
-      <c r="F28" t="n" s="430">
-        <v>0.3598550026051479</v>
-      </c>
-      <c r="G28" t="n" s="431">
-        <v>2.6216216216216215</v>
-      </c>
-      <c r="H28" t="n" s="432">
-        <v>1.1631220283585264</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s" s="436">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32"/>
-      <c r="B32" t="s" s="450">
-        <v>42</v>
-      </c>
-      <c r="C32" t="s" s="450">
-        <v>43</v>
-      </c>
-      <c r="D32" t="s" s="450">
-        <v>44</v>
-      </c>
-      <c r="E32" t="s" s="450">
-        <v>45</v>
-      </c>
-      <c r="F32" t="s" s="450">
-        <v>46</v>
-      </c>
-      <c r="G32" t="s" s="450">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s" s="446">
-        <v>28</v>
-      </c>
-      <c r="B33" t="n" s="451">
-        <v>0.02702702702702703</v>
-      </c>
-      <c r="C33" t="n" s="452">
-        <v>0.08108108108108109</v>
-      </c>
-      <c r="D33" t="n" s="453">
-        <v>0.32432432432432434</v>
-      </c>
-      <c r="E33" t="n" s="454">
-        <v>0.4594594594594595</v>
-      </c>
-      <c r="F33" t="n" s="455">
+      <c r="B27" t="n" s="451">
+        <v>0.05405405405405406</v>
+      </c>
+      <c r="C27" t="n" s="452">
         <v>0.10810810810810811</v>
       </c>
-      <c r="G33" t="n" s="456">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s" s="446">
-        <v>29</v>
-      </c>
-      <c r="B34" t="n" s="451">
-        <v>0.0</v>
-      </c>
-      <c r="C34" t="n" s="452">
-        <v>0.2702702702702703</v>
-      </c>
-      <c r="D34" t="n" s="453">
-        <v>0.32432432432432434</v>
-      </c>
-      <c r="E34" t="n" s="454">
-        <v>0.32432432432432434</v>
-      </c>
-      <c r="F34" t="n" s="455">
-        <v>0.08108108108108109</v>
-      </c>
-      <c r="G34" t="n" s="456">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s" s="446">
-        <v>30</v>
-      </c>
-      <c r="B35" t="n" s="451">
-        <v>0.0</v>
-      </c>
-      <c r="C35" t="n" s="452">
-        <v>0.16216216216216217</v>
-      </c>
-      <c r="D35" t="n" s="453">
-        <v>0.6756756756756757</v>
-      </c>
-      <c r="E35" t="n" s="454">
-        <v>0.10810810810810811</v>
-      </c>
-      <c r="F35" t="n" s="455">
+      <c r="D27" t="n" s="453">
+        <v>0.40540540540540543</v>
+      </c>
+      <c r="E27" t="n" s="454">
+        <v>0.3783783783783784</v>
+      </c>
+      <c r="F27" t="n" s="455">
         <v>0.05405405405405406</v>
       </c>
-      <c r="G35" t="n" s="456">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s" s="446">
-        <v>31</v>
-      </c>
-      <c r="B36" t="n" s="451">
-        <v>0.0</v>
-      </c>
-      <c r="C36" t="n" s="452">
-        <v>0.02702702702702703</v>
-      </c>
-      <c r="D36" t="n" s="453">
-        <v>0.16216216216216217</v>
-      </c>
-      <c r="E36" t="n" s="454">
-        <v>0.43243243243243246</v>
-      </c>
-      <c r="F36" t="n" s="455">
-        <v>0.3783783783783784</v>
-      </c>
-      <c r="G36" t="n" s="456">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s" s="446">
-        <v>32</v>
-      </c>
-      <c r="B37" t="n" s="451">
-        <v>0.02702702702702703</v>
-      </c>
-      <c r="C37" t="n" s="452">
-        <v>0.24324324324324326</v>
-      </c>
-      <c r="D37" t="n" s="453">
-        <v>0.2972972972972973</v>
-      </c>
-      <c r="E37" t="n" s="454">
-        <v>0.43243243243243246</v>
-      </c>
-      <c r="F37" t="n" s="455">
-        <v>0.0</v>
-      </c>
-      <c r="G37" t="n" s="456">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s" s="446">
-        <v>33</v>
-      </c>
-      <c r="B38" t="n" s="451">
-        <v>0.05405405405405406</v>
-      </c>
-      <c r="C38" t="n" s="452">
-        <v>0.10810810810810811</v>
-      </c>
-      <c r="D38" t="n" s="453">
-        <v>0.40540540540540543</v>
-      </c>
-      <c r="E38" t="n" s="454">
-        <v>0.3783783783783784</v>
-      </c>
-      <c r="F38" t="n" s="455">
-        <v>0.05405405405405406</v>
-      </c>
-      <c r="G38" t="n" s="456">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s" s="446">
-        <v>34</v>
-      </c>
-      <c r="B39" t="n" s="451">
-        <v>0.1891891891891892</v>
-      </c>
-      <c r="C39" t="n" s="452">
-        <v>0.2972972972972973</v>
-      </c>
-      <c r="D39" t="n" s="453">
-        <v>0.2702702702702703</v>
-      </c>
-      <c r="E39" t="n" s="454">
-        <v>0.1891891891891892</v>
-      </c>
-      <c r="F39" t="n" s="455">
-        <v>0.05405405405405406</v>
-      </c>
-      <c r="G39" t="n" s="456">
+      <c r="G27" t="n" s="456">
         <v>0.0</v>
       </c>
     </row>
